--- a/raw_data/20200818_saline/20200818_Sensor1_Test_74.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor1_Test_74.xlsx
@@ -1,3335 +1,3751 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7902851D-F747-461F-9631-5F5B6E4F7A01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>65885.719194</v>
+        <v>65885.719194000005</v>
       </c>
       <c r="B2" s="1">
         <v>18.301589</v>
       </c>
       <c r="C2" s="1">
-        <v>898.047000</v>
+        <v>898.04700000000003</v>
       </c>
       <c r="D2" s="1">
-        <v>-202.632000</v>
+        <v>-202.63200000000001</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>65896.089539</v>
+        <v>65896.089538999993</v>
       </c>
       <c r="G2" s="1">
-        <v>18.304469</v>
+        <v>18.304469000000001</v>
       </c>
       <c r="H2" s="1">
-        <v>917.296000</v>
+        <v>917.29600000000005</v>
       </c>
       <c r="I2" s="1">
-        <v>-171.571000</v>
+        <v>-171.571</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>65907.202436</v>
+        <v>65907.202436000007</v>
       </c>
       <c r="L2" s="1">
-        <v>18.307556</v>
+        <v>18.307556000000002</v>
       </c>
       <c r="M2" s="1">
-        <v>940.992000</v>
+        <v>940.99199999999996</v>
       </c>
       <c r="N2" s="1">
-        <v>-122.066000</v>
+        <v>-122.066</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>65917.692791</v>
+        <v>65917.692790999994</v>
       </c>
       <c r="Q2" s="1">
-        <v>18.310470</v>
+        <v>18.310469999999999</v>
       </c>
       <c r="R2" s="1">
-        <v>948.018000</v>
+        <v>948.01800000000003</v>
       </c>
       <c r="S2" s="1">
-        <v>-105.397000</v>
+        <v>-105.39700000000001</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>65928.257577</v>
+        <v>65928.257576999997</v>
       </c>
       <c r="V2" s="1">
-        <v>18.313405</v>
+        <v>18.313404999999999</v>
       </c>
       <c r="W2" s="1">
-        <v>954.853000</v>
+        <v>954.85299999999995</v>
       </c>
       <c r="X2" s="1">
-        <v>-89.882200</v>
+        <v>-89.882199999999997</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>65938.689435</v>
+        <v>65938.689434999993</v>
       </c>
       <c r="AA2" s="1">
-        <v>18.316303</v>
+        <v>18.316303000000001</v>
       </c>
       <c r="AB2" s="1">
-        <v>962.186000</v>
+        <v>962.18600000000004</v>
       </c>
       <c r="AC2" s="1">
-        <v>-77.854900</v>
+        <v>-77.854900000000001</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>65949.260706</v>
+        <v>65949.260706000001</v>
       </c>
       <c r="AF2" s="1">
         <v>18.319239</v>
       </c>
       <c r="AG2" s="1">
-        <v>966.965000</v>
+        <v>966.96500000000003</v>
       </c>
       <c r="AH2" s="1">
-        <v>-75.386600</v>
+        <v>-75.386600000000001</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>65959.999552</v>
+        <v>65959.999551999994</v>
       </c>
       <c r="AK2" s="1">
         <v>18.322222</v>
       </c>
       <c r="AL2" s="1">
-        <v>974.079000</v>
+        <v>974.07899999999995</v>
       </c>
       <c r="AM2" s="1">
-        <v>-79.782600</v>
+        <v>-79.782600000000002</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>65970.015761</v>
+        <v>65970.015761000002</v>
       </c>
       <c r="AP2" s="1">
         <v>18.325004</v>
       </c>
       <c r="AQ2" s="1">
-        <v>982.142000</v>
+        <v>982.14200000000005</v>
       </c>
       <c r="AR2" s="1">
-        <v>-91.181300</v>
+        <v>-91.181299999999993</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>65980.692676</v>
+        <v>65980.692676000006</v>
       </c>
       <c r="AU2" s="1">
-        <v>18.327970</v>
+        <v>18.327970000000001</v>
       </c>
       <c r="AV2" s="1">
-        <v>991.924000</v>
+        <v>991.92399999999998</v>
       </c>
       <c r="AW2" s="1">
-        <v>-108.749000</v>
+        <v>-108.749</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>65991.391350</v>
+        <v>65991.391350000005</v>
       </c>
       <c r="AZ2" s="1">
         <v>18.330942</v>
       </c>
       <c r="BA2" s="1">
-        <v>1000.150000</v>
+        <v>1000.15</v>
       </c>
       <c r="BB2" s="1">
-        <v>-124.327000</v>
+        <v>-124.327</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>66002.352440</v>
+        <v>66002.352440000002</v>
       </c>
       <c r="BE2" s="1">
         <v>18.333987</v>
       </c>
       <c r="BF2" s="1">
-        <v>1039.010000</v>
+        <v>1039.01</v>
       </c>
       <c r="BG2" s="1">
-        <v>-196.064000</v>
+        <v>-196.06399999999999</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>66013.004057</v>
+        <v>66013.004056999998</v>
       </c>
       <c r="BJ2" s="1">
-        <v>18.336946</v>
+        <v>18.336946000000001</v>
       </c>
       <c r="BK2" s="1">
-        <v>1106.520000</v>
+        <v>1106.52</v>
       </c>
       <c r="BL2" s="1">
-        <v>-311.879000</v>
+        <v>-311.87900000000002</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
         <v>66024.441305</v>
       </c>
       <c r="BO2" s="1">
-        <v>18.340123</v>
+        <v>18.340122999999998</v>
       </c>
       <c r="BP2" s="1">
-        <v>1216.170000</v>
+        <v>1216.17</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-492.595000</v>
+        <v>-492.59500000000003</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>66034.887516</v>
+        <v>66034.887516000003</v>
       </c>
       <c r="BT2" s="1">
         <v>18.343024</v>
       </c>
       <c r="BU2" s="1">
-        <v>1338.410000</v>
+        <v>1338.41</v>
       </c>
       <c r="BV2" s="1">
-        <v>-689.216000</v>
+        <v>-689.21600000000001</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>66045.666574</v>
+        <v>66045.666574000003</v>
       </c>
       <c r="BY2" s="1">
-        <v>18.346018</v>
+        <v>18.346018000000001</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1474.700000</v>
+        <v>1474.7</v>
       </c>
       <c r="CA2" s="1">
-        <v>-897.749000</v>
+        <v>-897.74900000000002</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>66057.024959</v>
+        <v>66057.024959000002</v>
       </c>
       <c r="CD2" s="1">
-        <v>18.349174</v>
+        <v>18.349174000000001</v>
       </c>
       <c r="CE2" s="1">
-        <v>1826.390000</v>
+        <v>1826.39</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1390.470000</v>
+        <v>-1390.47</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>65886.415073</v>
+        <v>65886.415072999996</v>
       </c>
       <c r="B3" s="1">
-        <v>18.301782</v>
+        <v>18.301781999999999</v>
       </c>
       <c r="C3" s="1">
-        <v>898.169000</v>
+        <v>898.16899999999998</v>
       </c>
       <c r="D3" s="1">
-        <v>-202.719000</v>
+        <v>-202.71899999999999</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>65896.816180</v>
+        <v>65896.816179999994</v>
       </c>
       <c r="G3" s="1">
-        <v>18.304671</v>
+        <v>18.304670999999999</v>
       </c>
       <c r="H3" s="1">
-        <v>916.323000</v>
+        <v>916.32299999999998</v>
       </c>
       <c r="I3" s="1">
-        <v>-171.806000</v>
+        <v>-171.80600000000001</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>65907.546665</v>
+        <v>65907.546665000002</v>
       </c>
       <c r="L3" s="1">
-        <v>18.307652</v>
+        <v>18.307652000000001</v>
       </c>
       <c r="M3" s="1">
-        <v>940.910000</v>
+        <v>940.91</v>
       </c>
       <c r="N3" s="1">
-        <v>-122.036000</v>
+        <v>-122.036</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>65918.053878</v>
+        <v>65918.053878000006</v>
       </c>
       <c r="Q3" s="1">
-        <v>18.310571</v>
+        <v>18.310570999999999</v>
       </c>
       <c r="R3" s="1">
-        <v>947.993000</v>
+        <v>947.99300000000005</v>
       </c>
       <c r="S3" s="1">
-        <v>-105.397000</v>
+        <v>-105.39700000000001</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>65928.607256</v>
+        <v>65928.607256000003</v>
       </c>
       <c r="V3" s="1">
         <v>18.313502</v>
       </c>
       <c r="W3" s="1">
-        <v>954.845000</v>
+        <v>954.84500000000003</v>
       </c>
       <c r="X3" s="1">
-        <v>-89.917800</v>
+        <v>-89.9178</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>65939.390810</v>
+        <v>65939.390809999997</v>
       </c>
       <c r="AA3" s="1">
-        <v>18.316497</v>
+        <v>18.316496999999998</v>
       </c>
       <c r="AB3" s="1">
-        <v>962.129000</v>
+        <v>962.12900000000002</v>
       </c>
       <c r="AC3" s="1">
-        <v>-77.837300</v>
+        <v>-77.837299999999999</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>65949.973953</v>
+        <v>65949.973952999993</v>
       </c>
       <c r="AF3" s="1">
-        <v>18.319437</v>
+        <v>18.319437000000001</v>
       </c>
       <c r="AG3" s="1">
-        <v>966.968000</v>
+        <v>966.96799999999996</v>
       </c>
       <c r="AH3" s="1">
-        <v>-75.127900</v>
+        <v>-75.127899999999997</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>65960.426608</v>
+        <v>65960.426607999994</v>
       </c>
       <c r="AK3" s="1">
-        <v>18.322341</v>
+        <v>18.322341000000002</v>
       </c>
       <c r="AL3" s="1">
-        <v>974.099000</v>
+        <v>974.09900000000005</v>
       </c>
       <c r="AM3" s="1">
-        <v>-79.780500</v>
+        <v>-79.780500000000004</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>65970.376354</v>
+        <v>65970.376354000007</v>
       </c>
       <c r="AP3" s="1">
-        <v>18.325105</v>
+        <v>18.325105000000001</v>
       </c>
       <c r="AQ3" s="1">
-        <v>982.142000</v>
+        <v>982.14200000000005</v>
       </c>
       <c r="AR3" s="1">
-        <v>-91.181100</v>
+        <v>-91.181100000000001</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>65981.059684</v>
+        <v>65981.059684000007</v>
       </c>
       <c r="AU3" s="1">
-        <v>18.328072</v>
+        <v>18.328071999999999</v>
       </c>
       <c r="AV3" s="1">
-        <v>991.928000</v>
+        <v>991.928</v>
       </c>
       <c r="AW3" s="1">
-        <v>-108.750000</v>
+        <v>-108.75</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>65991.775254</v>
+        <v>65991.775253999993</v>
       </c>
       <c r="AZ3" s="1">
         <v>18.331049</v>
       </c>
       <c r="BA3" s="1">
-        <v>1000.170000</v>
+        <v>1000.17</v>
       </c>
       <c r="BB3" s="1">
-        <v>-124.356000</v>
+        <v>-124.35599999999999</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>66002.785476</v>
+        <v>66002.785476000005</v>
       </c>
       <c r="BE3" s="1">
-        <v>18.334107</v>
+        <v>18.334106999999999</v>
       </c>
       <c r="BF3" s="1">
-        <v>1038.990000</v>
+        <v>1038.99</v>
       </c>
       <c r="BG3" s="1">
-        <v>-196.087000</v>
+        <v>-196.08699999999999</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>66013.427650</v>
+        <v>66013.427649999998</v>
       </c>
       <c r="BJ3" s="1">
-        <v>18.337063</v>
+        <v>18.337063000000001</v>
       </c>
       <c r="BK3" s="1">
-        <v>1106.530000</v>
+        <v>1106.53</v>
       </c>
       <c r="BL3" s="1">
-        <v>-311.870000</v>
+        <v>-311.87</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>66024.552874</v>
+        <v>66024.552874000001</v>
       </c>
       <c r="BO3" s="1">
-        <v>18.340154</v>
+        <v>18.340153999999998</v>
       </c>
       <c r="BP3" s="1">
-        <v>1216.140000</v>
+        <v>1216.1400000000001</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-492.621000</v>
+        <v>-492.62099999999998</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>66035.371612</v>
+        <v>66035.371612000003</v>
       </c>
       <c r="BT3" s="1">
         <v>18.343159</v>
       </c>
       <c r="BU3" s="1">
-        <v>1338.360000</v>
+        <v>1338.36</v>
       </c>
       <c r="BV3" s="1">
-        <v>-689.212000</v>
+        <v>-689.21199999999999</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>66046.130334</v>
+        <v>66046.130334000001</v>
       </c>
       <c r="BY3" s="1">
-        <v>18.346147</v>
+        <v>18.346146999999998</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1474.610000</v>
+        <v>1474.61</v>
       </c>
       <c r="CA3" s="1">
-        <v>-897.778000</v>
+        <v>-897.77800000000002</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>66057.585438</v>
+        <v>66057.585437999995</v>
       </c>
       <c r="CD3" s="1">
-        <v>18.349329</v>
+        <v>18.349329000000001</v>
       </c>
       <c r="CE3" s="1">
-        <v>1827.200000</v>
+        <v>1827.2</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1391.770000</v>
+        <v>-1391.77</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>65886.756321</v>
+        <v>65886.756320999993</v>
       </c>
       <c r="B4" s="1">
-        <v>18.301877</v>
+        <v>18.301877000000001</v>
       </c>
       <c r="C4" s="1">
-        <v>898.082000</v>
+        <v>898.08199999999999</v>
       </c>
       <c r="D4" s="1">
-        <v>-202.599000</v>
+        <v>-202.59899999999999</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>65897.160439</v>
+        <v>65897.160438999999</v>
       </c>
       <c r="G4" s="1">
-        <v>18.304767</v>
+        <v>18.304766999999998</v>
       </c>
       <c r="H4" s="1">
-        <v>916.818000</v>
+        <v>916.81799999999998</v>
       </c>
       <c r="I4" s="1">
-        <v>-171.613000</v>
+        <v>-171.613</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>65907.893339</v>
+        <v>65907.893339000002</v>
       </c>
       <c r="L4" s="1">
         <v>18.307748</v>
       </c>
       <c r="M4" s="1">
-        <v>941.011000</v>
+        <v>941.01099999999997</v>
       </c>
       <c r="N4" s="1">
-        <v>-121.998000</v>
+        <v>-121.998</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>65918.715542</v>
+        <v>65918.715542000005</v>
       </c>
       <c r="Q4" s="1">
-        <v>18.310754</v>
+        <v>18.310753999999999</v>
       </c>
       <c r="R4" s="1">
-        <v>948.037000</v>
+        <v>948.03700000000003</v>
       </c>
       <c r="S4" s="1">
-        <v>-105.396000</v>
+        <v>-105.396</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>65929.267928</v>
+        <v>65929.267928000001</v>
       </c>
       <c r="V4" s="1">
-        <v>18.313686</v>
+        <v>18.313686000000001</v>
       </c>
       <c r="W4" s="1">
-        <v>954.859000</v>
+        <v>954.85900000000004</v>
       </c>
       <c r="X4" s="1">
-        <v>-90.002400</v>
+        <v>-90.002399999999994</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>65939.770713</v>
+        <v>65939.770713000005</v>
       </c>
       <c r="AA4" s="1">
-        <v>18.316603</v>
+        <v>18.316603000000001</v>
       </c>
       <c r="AB4" s="1">
-        <v>962.173000</v>
+        <v>962.173</v>
       </c>
       <c r="AC4" s="1">
-        <v>-77.835600</v>
+        <v>-77.835599999999999</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>65950.318140</v>
+        <v>65950.318140000003</v>
       </c>
       <c r="AF4" s="1">
         <v>18.319533</v>
       </c>
       <c r="AG4" s="1">
-        <v>967.018000</v>
+        <v>967.01800000000003</v>
       </c>
       <c r="AH4" s="1">
-        <v>-75.378300</v>
+        <v>-75.378299999999996</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>65960.772318</v>
+        <v>65960.772318000003</v>
       </c>
       <c r="AK4" s="1">
-        <v>18.322437</v>
+        <v>18.322437000000001</v>
       </c>
       <c r="AL4" s="1">
-        <v>974.085000</v>
+        <v>974.08500000000004</v>
       </c>
       <c r="AM4" s="1">
-        <v>-79.769200</v>
+        <v>-79.769199999999998</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>65970.737442</v>
+        <v>65970.737441999998</v>
       </c>
       <c r="AP4" s="1">
         <v>18.325205</v>
       </c>
       <c r="AQ4" s="1">
-        <v>982.129000</v>
+        <v>982.12900000000002</v>
       </c>
       <c r="AR4" s="1">
-        <v>-91.190000</v>
+        <v>-91.19</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>65981.427220</v>
+        <v>65981.427219999998</v>
       </c>
       <c r="AU4" s="1">
-        <v>18.328174</v>
+        <v>18.328174000000001</v>
       </c>
       <c r="AV4" s="1">
-        <v>991.905000</v>
+        <v>991.90499999999997</v>
       </c>
       <c r="AW4" s="1">
-        <v>-108.743000</v>
+        <v>-108.74299999999999</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>65992.203829</v>
+        <v>65992.203829000005</v>
       </c>
       <c r="AZ4" s="1">
-        <v>18.331168</v>
+        <v>18.331168000000002</v>
       </c>
       <c r="BA4" s="1">
-        <v>1000.160000</v>
+        <v>1000.16</v>
       </c>
       <c r="BB4" s="1">
-        <v>-124.335000</v>
+        <v>-124.33499999999999</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>66003.120774</v>
+        <v>66003.120773999995</v>
       </c>
       <c r="BE4" s="1">
-        <v>18.334200</v>
+        <v>18.334199999999999</v>
       </c>
       <c r="BF4" s="1">
-        <v>1039.000000</v>
+        <v>1039</v>
       </c>
       <c r="BG4" s="1">
-        <v>-196.070000</v>
+        <v>-196.07</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>66013.773330</v>
+        <v>66013.773329999996</v>
       </c>
       <c r="BJ4" s="1">
         <v>18.337159</v>
       </c>
       <c r="BK4" s="1">
-        <v>1106.500000</v>
+        <v>1106.5</v>
       </c>
       <c r="BL4" s="1">
-        <v>-311.881000</v>
+        <v>-311.88099999999997</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>66024.976489</v>
+        <v>66024.976488999993</v>
       </c>
       <c r="BO4" s="1">
-        <v>18.340271</v>
+        <v>18.340271000000001</v>
       </c>
       <c r="BP4" s="1">
-        <v>1216.170000</v>
+        <v>1216.17</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-492.624000</v>
+        <v>-492.62400000000002</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>66035.804650</v>
+        <v>66035.804650000005</v>
       </c>
       <c r="BT4" s="1">
-        <v>18.343279</v>
+        <v>18.343278999999999</v>
       </c>
       <c r="BU4" s="1">
-        <v>1338.430000</v>
+        <v>1338.43</v>
       </c>
       <c r="BV4" s="1">
-        <v>-689.274000</v>
+        <v>-689.274</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>66046.578221</v>
+        <v>66046.578221000003</v>
       </c>
       <c r="BY4" s="1">
-        <v>18.346272</v>
+        <v>18.346271999999999</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1474.740000</v>
+        <v>1474.74</v>
       </c>
       <c r="CA4" s="1">
-        <v>-897.880000</v>
+        <v>-897.88</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
         <v>66058.100821</v>
       </c>
       <c r="CD4" s="1">
-        <v>18.349472</v>
+        <v>18.349471999999999</v>
       </c>
       <c r="CE4" s="1">
-        <v>1827.670000</v>
+        <v>1827.67</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1389.690000</v>
+        <v>-1389.69</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>65887.100082</v>
+        <v>65887.100082000004</v>
       </c>
       <c r="B5" s="1">
-        <v>18.301972</v>
+        <v>18.301971999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>898.279000</v>
+        <v>898.279</v>
       </c>
       <c r="D5" s="1">
-        <v>-202.599000</v>
+        <v>-202.59899999999999</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>65897.508611</v>
+        <v>65897.508610999997</v>
       </c>
       <c r="G5" s="1">
-        <v>18.304864</v>
+        <v>18.304863999999998</v>
       </c>
       <c r="H5" s="1">
-        <v>916.528000</v>
+        <v>916.52800000000002</v>
       </c>
       <c r="I5" s="1">
-        <v>-171.828000</v>
+        <v>-171.828</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>65908.556023</v>
+        <v>65908.556022999997</v>
       </c>
       <c r="L5" s="1">
-        <v>18.307932</v>
+        <v>18.307932000000001</v>
       </c>
       <c r="M5" s="1">
-        <v>941.046000</v>
+        <v>941.04600000000005</v>
       </c>
       <c r="N5" s="1">
-        <v>-121.886000</v>
+        <v>-121.886</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>65919.098950</v>
+        <v>65919.09895</v>
       </c>
       <c r="Q5" s="1">
-        <v>18.310861</v>
+        <v>18.310860999999999</v>
       </c>
       <c r="R5" s="1">
-        <v>948.066000</v>
+        <v>948.06600000000003</v>
       </c>
       <c r="S5" s="1">
-        <v>-105.404000</v>
+        <v>-105.404</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>65929.645415</v>
+        <v>65929.645415000006</v>
       </c>
       <c r="V5" s="1">
-        <v>18.313790</v>
+        <v>18.313790000000001</v>
       </c>
       <c r="W5" s="1">
-        <v>954.906000</v>
+        <v>954.90599999999995</v>
       </c>
       <c r="X5" s="1">
-        <v>-89.884600</v>
+        <v>-89.884600000000006</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>65940.117924</v>
+        <v>65940.117924000006</v>
       </c>
       <c r="AA5" s="1">
         <v>18.316699</v>
       </c>
       <c r="AB5" s="1">
-        <v>962.131000</v>
+        <v>962.13099999999997</v>
       </c>
       <c r="AC5" s="1">
-        <v>-77.813900</v>
+        <v>-77.813900000000004</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>65950.661371</v>
+        <v>65950.661370999995</v>
       </c>
       <c r="AF5" s="1">
-        <v>18.319628</v>
+        <v>18.319628000000002</v>
       </c>
       <c r="AG5" s="1">
-        <v>966.876000</v>
+        <v>966.87599999999998</v>
       </c>
       <c r="AH5" s="1">
-        <v>-75.427200</v>
+        <v>-75.427199999999999</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>65961.122005</v>
+        <v>65961.122004999997</v>
       </c>
       <c r="AK5" s="1">
-        <v>18.322534</v>
+        <v>18.322534000000001</v>
       </c>
       <c r="AL5" s="1">
-        <v>974.074000</v>
+        <v>974.07399999999996</v>
       </c>
       <c r="AM5" s="1">
-        <v>-79.794000</v>
+        <v>-79.793999999999997</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>65971.163536</v>
+        <v>65971.163535999993</v>
       </c>
       <c r="AP5" s="1">
-        <v>18.325323</v>
+        <v>18.325323000000001</v>
       </c>
       <c r="AQ5" s="1">
-        <v>982.109000</v>
+        <v>982.10900000000004</v>
       </c>
       <c r="AR5" s="1">
-        <v>-91.189300</v>
+        <v>-91.189300000000003</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>65981.849843</v>
+        <v>65981.849843000004</v>
       </c>
       <c r="AU5" s="1">
-        <v>18.328292</v>
+        <v>18.328292000000001</v>
       </c>
       <c r="AV5" s="1">
-        <v>991.943000</v>
+        <v>991.94299999999998</v>
       </c>
       <c r="AW5" s="1">
-        <v>-108.737000</v>
+        <v>-108.73699999999999</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>65992.492498</v>
+        <v>65992.492498000007</v>
       </c>
       <c r="AZ5" s="1">
-        <v>18.331248</v>
+        <v>18.331247999999999</v>
       </c>
       <c r="BA5" s="1">
-        <v>1000.160000</v>
+        <v>1000.16</v>
       </c>
       <c r="BB5" s="1">
-        <v>-124.302000</v>
+        <v>-124.30200000000001</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>66003.483319</v>
+        <v>66003.483319000006</v>
       </c>
       <c r="BE5" s="1">
         <v>18.334301</v>
       </c>
       <c r="BF5" s="1">
-        <v>1038.990000</v>
+        <v>1038.99</v>
       </c>
       <c r="BG5" s="1">
-        <v>-196.092000</v>
+        <v>-196.09200000000001</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>66014.149819</v>
+        <v>66014.149818999998</v>
       </c>
       <c r="BJ5" s="1">
-        <v>18.337264</v>
+        <v>18.337264000000001</v>
       </c>
       <c r="BK5" s="1">
-        <v>1106.500000</v>
+        <v>1106.5</v>
       </c>
       <c r="BL5" s="1">
-        <v>-311.882000</v>
+        <v>-311.88200000000001</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>66025.374744</v>
+        <v>66025.374744000001</v>
       </c>
       <c r="BO5" s="1">
-        <v>18.340382</v>
+        <v>18.340382000000002</v>
       </c>
       <c r="BP5" s="1">
-        <v>1216.160000</v>
+        <v>1216.1600000000001</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-492.627000</v>
+        <v>-492.62700000000001</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>66036.220297</v>
+        <v>66036.220297000007</v>
       </c>
       <c r="BT5" s="1">
-        <v>18.343395</v>
+        <v>18.343395000000001</v>
       </c>
       <c r="BU5" s="1">
-        <v>1338.320000</v>
+        <v>1338.32</v>
       </c>
       <c r="BV5" s="1">
-        <v>-689.214000</v>
+        <v>-689.21400000000006</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>66047.008748</v>
+        <v>66047.008747999993</v>
       </c>
       <c r="BY5" s="1">
-        <v>18.346391</v>
+        <v>18.346391000000001</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1474.580000</v>
+        <v>1474.58</v>
       </c>
       <c r="CA5" s="1">
-        <v>-897.907000</v>
+        <v>-897.90700000000004</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>66058.643991</v>
+        <v>66058.643991000004</v>
       </c>
       <c r="CD5" s="1">
-        <v>18.349623</v>
+        <v>18.349623000000001</v>
       </c>
       <c r="CE5" s="1">
-        <v>1826.490000</v>
+        <v>1826.49</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1390.750000</v>
+        <v>-1390.75</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>65887.756788</v>
+        <v>65887.756787999999</v>
       </c>
       <c r="B6" s="1">
-        <v>18.302155</v>
+        <v>18.302154999999999</v>
       </c>
       <c r="C6" s="1">
-        <v>898.116000</v>
+        <v>898.11599999999999</v>
       </c>
       <c r="D6" s="1">
-        <v>-202.741000</v>
+        <v>-202.74100000000001</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>65898.165298</v>
+        <v>65898.165298000007</v>
       </c>
       <c r="G6" s="1">
-        <v>18.305046</v>
+        <v>18.305046000000001</v>
       </c>
       <c r="H6" s="1">
-        <v>916.591000</v>
+        <v>916.59100000000001</v>
       </c>
       <c r="I6" s="1">
-        <v>-171.910000</v>
+        <v>-171.91</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>65908.930962</v>
+        <v>65908.930961999999</v>
       </c>
       <c r="L6" s="1">
-        <v>18.308036</v>
+        <v>18.308036000000001</v>
       </c>
       <c r="M6" s="1">
-        <v>940.941000</v>
+        <v>940.94100000000003</v>
       </c>
       <c r="N6" s="1">
-        <v>-122.048000</v>
+        <v>-122.048</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>65919.450613</v>
+        <v>65919.450612999994</v>
       </c>
       <c r="Q6" s="1">
         <v>18.310959</v>
       </c>
       <c r="R6" s="1">
-        <v>948.054000</v>
+        <v>948.05399999999997</v>
       </c>
       <c r="S6" s="1">
-        <v>-105.419000</v>
+        <v>-105.419</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>65929.996054</v>
+        <v>65929.996054000003</v>
       </c>
       <c r="V6" s="1">
-        <v>18.313888</v>
+        <v>18.313887999999999</v>
       </c>
       <c r="W6" s="1">
-        <v>954.821000</v>
+        <v>954.82100000000003</v>
       </c>
       <c r="X6" s="1">
-        <v>-89.903200</v>
+        <v>-89.903199999999998</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>65940.469082</v>
+        <v>65940.469081999996</v>
       </c>
       <c r="AA6" s="1">
-        <v>18.316797</v>
+        <v>18.316797000000001</v>
       </c>
       <c r="AB6" s="1">
-        <v>962.155000</v>
+        <v>962.15499999999997</v>
       </c>
       <c r="AC6" s="1">
-        <v>-77.784600</v>
+        <v>-77.784599999999998</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>65951.080986</v>
+        <v>65951.080986000001</v>
       </c>
       <c r="AF6" s="1">
-        <v>18.319745</v>
+        <v>18.319745000000001</v>
       </c>
       <c r="AG6" s="1">
-        <v>966.799000</v>
+        <v>966.79899999999998</v>
       </c>
       <c r="AH6" s="1">
-        <v>-75.207600</v>
+        <v>-75.207599999999999</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>65961.538143</v>
+        <v>65961.538142999998</v>
       </c>
       <c r="AK6" s="1">
-        <v>18.322649</v>
+        <v>18.322648999999998</v>
       </c>
       <c r="AL6" s="1">
-        <v>974.085000</v>
+        <v>974.08500000000004</v>
       </c>
       <c r="AM6" s="1">
-        <v>-79.787300</v>
+        <v>-79.787300000000002</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>65971.455649</v>
+        <v>65971.455648999996</v>
       </c>
       <c r="AP6" s="1">
-        <v>18.325404</v>
+        <v>18.325403999999999</v>
       </c>
       <c r="AQ6" s="1">
-        <v>982.113000</v>
+        <v>982.11300000000006</v>
       </c>
       <c r="AR6" s="1">
-        <v>-91.198500</v>
+        <v>-91.198499999999996</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>65982.157331</v>
+        <v>65982.157330999995</v>
       </c>
       <c r="AU6" s="1">
         <v>18.328377</v>
       </c>
       <c r="AV6" s="1">
-        <v>991.934000</v>
+        <v>991.93399999999997</v>
       </c>
       <c r="AW6" s="1">
-        <v>-108.764000</v>
+        <v>-108.764</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>65992.851608</v>
+        <v>65992.851607999997</v>
       </c>
       <c r="AZ6" s="1">
-        <v>18.331348</v>
+        <v>18.331347999999998</v>
       </c>
       <c r="BA6" s="1">
-        <v>1000.150000</v>
+        <v>1000.15</v>
       </c>
       <c r="BB6" s="1">
-        <v>-124.318000</v>
+        <v>-124.318</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>66003.843413</v>
+        <v>66003.843412999995</v>
       </c>
       <c r="BE6" s="1">
         <v>18.334401</v>
       </c>
       <c r="BF6" s="1">
-        <v>1039.020000</v>
+        <v>1039.02</v>
       </c>
       <c r="BG6" s="1">
-        <v>-196.070000</v>
+        <v>-196.07</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>66014.533719</v>
+        <v>66014.533718999999</v>
       </c>
       <c r="BJ6" s="1">
-        <v>18.337370</v>
+        <v>18.33737</v>
       </c>
       <c r="BK6" s="1">
-        <v>1106.520000</v>
+        <v>1106.52</v>
       </c>
       <c r="BL6" s="1">
-        <v>-311.900000</v>
+        <v>-311.89999999999998</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>66025.798856</v>
+        <v>66025.798855999994</v>
       </c>
       <c r="BO6" s="1">
-        <v>18.340500</v>
+        <v>18.340499999999999</v>
       </c>
       <c r="BP6" s="1">
-        <v>1216.150000</v>
+        <v>1216.1500000000001</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-492.614000</v>
+        <v>-492.61399999999998</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>66036.645338</v>
+        <v>66036.645338000002</v>
       </c>
       <c r="BT6" s="1">
-        <v>18.343513</v>
+        <v>18.343513000000002</v>
       </c>
       <c r="BU6" s="1">
-        <v>1338.430000</v>
+        <v>1338.43</v>
       </c>
       <c r="BV6" s="1">
-        <v>-689.212000</v>
+        <v>-689.21199999999999</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>66047.433358</v>
+        <v>66047.433357999995</v>
       </c>
       <c r="BY6" s="1">
-        <v>18.346509</v>
+        <v>18.346509000000001</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1474.710000</v>
+        <v>1474.71</v>
       </c>
       <c r="CA6" s="1">
-        <v>-897.742000</v>
+        <v>-897.74199999999996</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>66059.183084</v>
+        <v>66059.183084000004</v>
       </c>
       <c r="CD6" s="1">
-        <v>18.349773</v>
+        <v>18.349772999999999</v>
       </c>
       <c r="CE6" s="1">
-        <v>1827.790000</v>
+        <v>1827.79</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1390.900000</v>
+        <v>-1390.9</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>65888.120850</v>
+        <v>65888.120850000007</v>
       </c>
       <c r="B7" s="1">
         <v>18.302256</v>
       </c>
       <c r="C7" s="1">
-        <v>898.105000</v>
+        <v>898.10500000000002</v>
       </c>
       <c r="D7" s="1">
-        <v>-202.542000</v>
+        <v>-202.542</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>65898.546266</v>
+        <v>65898.546266000005</v>
       </c>
       <c r="G7" s="1">
         <v>18.305152</v>
       </c>
       <c r="H7" s="1">
-        <v>917.028000</v>
+        <v>917.02800000000002</v>
       </c>
       <c r="I7" s="1">
-        <v>-171.671000</v>
+        <v>-171.67099999999999</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>65909.278659</v>
+        <v>65909.278659000003</v>
       </c>
       <c r="L7" s="1">
-        <v>18.308133</v>
+        <v>18.308133000000002</v>
       </c>
       <c r="M7" s="1">
-        <v>940.958000</v>
+        <v>940.95799999999997</v>
       </c>
       <c r="N7" s="1">
-        <v>-121.974000</v>
+        <v>-121.974</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>65919.798340</v>
+        <v>65919.798339999994</v>
       </c>
       <c r="Q7" s="1">
         <v>18.311055</v>
       </c>
       <c r="R7" s="1">
-        <v>948.019000</v>
+        <v>948.01900000000001</v>
       </c>
       <c r="S7" s="1">
-        <v>-105.377000</v>
+        <v>-105.377</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>65930.334822</v>
+        <v>65930.334822000004</v>
       </c>
       <c r="V7" s="1">
-        <v>18.313982</v>
+        <v>18.313981999999999</v>
       </c>
       <c r="W7" s="1">
-        <v>954.871000</v>
+        <v>954.87099999999998</v>
       </c>
       <c r="X7" s="1">
-        <v>-89.895800</v>
+        <v>-89.895799999999994</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>65940.892205</v>
+        <v>65940.892204999996</v>
       </c>
       <c r="AA7" s="1">
-        <v>18.316915</v>
+        <v>18.316915000000002</v>
       </c>
       <c r="AB7" s="1">
-        <v>962.100000</v>
+        <v>962.1</v>
       </c>
       <c r="AC7" s="1">
-        <v>-77.796200</v>
+        <v>-77.796199999999999</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>65951.351802</v>
+        <v>65951.351802000005</v>
       </c>
       <c r="AF7" s="1">
-        <v>18.319820</v>
+        <v>18.31982</v>
       </c>
       <c r="AG7" s="1">
-        <v>966.855000</v>
+        <v>966.85500000000002</v>
       </c>
       <c r="AH7" s="1">
-        <v>-75.358100</v>
+        <v>-75.358099999999993</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>65961.832798</v>
+        <v>65961.832798000003</v>
       </c>
       <c r="AK7" s="1">
-        <v>18.322731</v>
+        <v>18.322731000000001</v>
       </c>
       <c r="AL7" s="1">
-        <v>974.080000</v>
+        <v>974.08</v>
       </c>
       <c r="AM7" s="1">
-        <v>-79.807900</v>
+        <v>-79.807900000000004</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>65971.818480</v>
+        <v>65971.818480000002</v>
       </c>
       <c r="AP7" s="1">
         <v>18.325505</v>
       </c>
       <c r="AQ7" s="1">
-        <v>982.090000</v>
+        <v>982.09</v>
       </c>
       <c r="AR7" s="1">
-        <v>-91.186300</v>
+        <v>-91.186300000000003</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>65982.520401</v>
+        <v>65982.520401000002</v>
       </c>
       <c r="AU7" s="1">
         <v>18.328478</v>
       </c>
       <c r="AV7" s="1">
-        <v>991.916000</v>
+        <v>991.91600000000005</v>
       </c>
       <c r="AW7" s="1">
-        <v>-108.746000</v>
+        <v>-108.746</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>65993.212659</v>
+        <v>65993.212658999997</v>
       </c>
       <c r="AZ7" s="1">
-        <v>18.331448</v>
+        <v>18.331448000000002</v>
       </c>
       <c r="BA7" s="1">
-        <v>1000.160000</v>
+        <v>1000.16</v>
       </c>
       <c r="BB7" s="1">
-        <v>-124.326000</v>
+        <v>-124.32599999999999</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>66004.565588</v>
+        <v>66004.565587999998</v>
       </c>
       <c r="BE7" s="1">
         <v>18.334602</v>
       </c>
       <c r="BF7" s="1">
-        <v>1039.010000</v>
+        <v>1039.01</v>
       </c>
       <c r="BG7" s="1">
-        <v>-196.079000</v>
+        <v>-196.07900000000001</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>66015.301030</v>
+        <v>66015.301030000002</v>
       </c>
       <c r="BJ7" s="1">
         <v>18.337584</v>
       </c>
       <c r="BK7" s="1">
-        <v>1106.530000</v>
+        <v>1106.53</v>
       </c>
       <c r="BL7" s="1">
-        <v>-311.874000</v>
+        <v>-311.87400000000002</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>66026.193672</v>
+        <v>66026.193671999994</v>
       </c>
       <c r="BO7" s="1">
-        <v>18.340609</v>
+        <v>18.340609000000001</v>
       </c>
       <c r="BP7" s="1">
-        <v>1216.150000</v>
+        <v>1216.1500000000001</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-492.661000</v>
+        <v>-492.661</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>66037.071437</v>
+        <v>66037.071437000006</v>
       </c>
       <c r="BT7" s="1">
-        <v>18.343631</v>
+        <v>18.343630999999998</v>
       </c>
       <c r="BU7" s="1">
-        <v>1338.330000</v>
+        <v>1338.33</v>
       </c>
       <c r="BV7" s="1">
-        <v>-689.236000</v>
+        <v>-689.23599999999999</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>66047.853436</v>
+        <v>66047.853436000005</v>
       </c>
       <c r="BY7" s="1">
-        <v>18.346626</v>
+        <v>18.346626000000001</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1474.660000</v>
+        <v>1474.66</v>
       </c>
       <c r="CA7" s="1">
-        <v>-897.856000</v>
+        <v>-897.85599999999999</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>66060.032700</v>
+        <v>66060.032699999996</v>
       </c>
       <c r="CD7" s="1">
         <v>18.350009</v>
       </c>
       <c r="CE7" s="1">
-        <v>1826.870000</v>
+        <v>1826.87</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1391.480000</v>
+        <v>-1391.48</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>65888.465037</v>
+        <v>65888.465037000002</v>
       </c>
       <c r="B8" s="1">
-        <v>18.302351</v>
+        <v>18.302351000000002</v>
       </c>
       <c r="C8" s="1">
-        <v>898.216000</v>
+        <v>898.21600000000001</v>
       </c>
       <c r="D8" s="1">
-        <v>-202.623000</v>
+        <v>-202.62299999999999</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
         <v>65898.891936</v>
       </c>
       <c r="G8" s="1">
-        <v>18.305248</v>
+        <v>18.305247999999999</v>
       </c>
       <c r="H8" s="1">
-        <v>917.001000</v>
+        <v>917.00099999999998</v>
       </c>
       <c r="I8" s="1">
-        <v>-172.111000</v>
+        <v>-172.11099999999999</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>65909.623379</v>
+        <v>65909.623378999997</v>
       </c>
       <c r="L8" s="1">
-        <v>18.308229</v>
+        <v>18.308229000000001</v>
       </c>
       <c r="M8" s="1">
-        <v>941.054000</v>
+        <v>941.05399999999997</v>
       </c>
       <c r="N8" s="1">
-        <v>-121.980000</v>
+        <v>-121.98</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>65920.221928</v>
+        <v>65920.221927999999</v>
       </c>
       <c r="Q8" s="1">
         <v>18.311173</v>
       </c>
       <c r="R8" s="1">
-        <v>948.061000</v>
+        <v>948.06100000000004</v>
       </c>
       <c r="S8" s="1">
-        <v>-105.382000</v>
+        <v>-105.38200000000001</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>65930.758406</v>
+        <v>65930.758405999994</v>
       </c>
       <c r="V8" s="1">
-        <v>18.314100</v>
+        <v>18.3141</v>
       </c>
       <c r="W8" s="1">
-        <v>954.834000</v>
+        <v>954.83399999999995</v>
       </c>
       <c r="X8" s="1">
-        <v>-89.851100</v>
+        <v>-89.851100000000002</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>65941.164004</v>
+        <v>65941.164004000006</v>
       </c>
       <c r="AA8" s="1">
-        <v>18.316990</v>
+        <v>18.316990000000001</v>
       </c>
       <c r="AB8" s="1">
-        <v>962.127000</v>
+        <v>962.12699999999995</v>
       </c>
       <c r="AC8" s="1">
-        <v>-77.799000</v>
+        <v>-77.799000000000007</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>65951.694539</v>
+        <v>65951.694539000004</v>
       </c>
       <c r="AF8" s="1">
-        <v>18.319915</v>
+        <v>18.319915000000002</v>
       </c>
       <c r="AG8" s="1">
-        <v>966.858000</v>
+        <v>966.85799999999995</v>
       </c>
       <c r="AH8" s="1">
-        <v>-75.386300</v>
+        <v>-75.386300000000006</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>65962.180956</v>
+        <v>65962.180955999997</v>
       </c>
       <c r="AK8" s="1">
-        <v>18.322828</v>
+        <v>18.322828000000001</v>
       </c>
       <c r="AL8" s="1">
-        <v>974.110000</v>
+        <v>974.11</v>
       </c>
       <c r="AM8" s="1">
-        <v>-79.779500</v>
+        <v>-79.779499999999999</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>65972.174882</v>
+        <v>65972.174882000007</v>
       </c>
       <c r="AP8" s="1">
-        <v>18.325604</v>
+        <v>18.325603999999998</v>
       </c>
       <c r="AQ8" s="1">
-        <v>982.118000</v>
+        <v>982.11800000000005</v>
       </c>
       <c r="AR8" s="1">
-        <v>-91.172000</v>
+        <v>-91.171999999999997</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>65982.886946</v>
+        <v>65982.886945999999</v>
       </c>
       <c r="AU8" s="1">
-        <v>18.328580</v>
+        <v>18.328579999999999</v>
       </c>
       <c r="AV8" s="1">
-        <v>991.935000</v>
+        <v>991.93499999999995</v>
       </c>
       <c r="AW8" s="1">
-        <v>-108.754000</v>
+        <v>-108.754</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>65993.928882</v>
+        <v>65993.928881999993</v>
       </c>
       <c r="AZ8" s="1">
         <v>18.331647</v>
       </c>
       <c r="BA8" s="1">
-        <v>1000.160000</v>
+        <v>1000.16</v>
       </c>
       <c r="BB8" s="1">
-        <v>-124.318000</v>
+        <v>-124.318</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>66004.925188</v>
+        <v>66004.925187999994</v>
       </c>
       <c r="BE8" s="1">
-        <v>18.334701</v>
+        <v>18.334700999999999</v>
       </c>
       <c r="BF8" s="1">
-        <v>1039.000000</v>
+        <v>1039</v>
       </c>
       <c r="BG8" s="1">
-        <v>-196.088000</v>
+        <v>-196.08799999999999</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>66015.675014</v>
+        <v>66015.675013999993</v>
       </c>
       <c r="BJ8" s="1">
         <v>18.337688</v>
       </c>
       <c r="BK8" s="1">
-        <v>1106.530000</v>
+        <v>1106.53</v>
       </c>
       <c r="BL8" s="1">
-        <v>-311.901000</v>
+        <v>-311.90100000000001</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>66026.612263</v>
+        <v>66026.612263000003</v>
       </c>
       <c r="BO8" s="1">
         <v>18.340726</v>
       </c>
       <c r="BP8" s="1">
-        <v>1216.150000</v>
+        <v>1216.1500000000001</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-492.676000</v>
+        <v>-492.67599999999999</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>66037.800520</v>
+        <v>66037.800520000004</v>
       </c>
       <c r="BT8" s="1">
         <v>18.343833</v>
       </c>
       <c r="BU8" s="1">
-        <v>1338.450000</v>
+        <v>1338.45</v>
       </c>
       <c r="BV8" s="1">
-        <v>-689.238000</v>
+        <v>-689.23800000000006</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>66048.589995</v>
+        <v>66048.589995000002</v>
       </c>
       <c r="BY8" s="1">
-        <v>18.346831</v>
+        <v>18.346831000000002</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1474.630000</v>
+        <v>1474.63</v>
       </c>
       <c r="CA8" s="1">
-        <v>-897.922000</v>
+        <v>-897.92200000000003</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>66060.262346</v>
+        <v>66060.262346000003</v>
       </c>
       <c r="CD8" s="1">
-        <v>18.350073</v>
+        <v>18.350072999999998</v>
       </c>
       <c r="CE8" s="1">
-        <v>1826.480000</v>
+        <v>1826.48</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1391.240000</v>
+        <v>-1391.24</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>65888.806303</v>
+        <v>65888.806303000005</v>
       </c>
       <c r="B9" s="1">
         <v>18.302446</v>
       </c>
       <c r="C9" s="1">
-        <v>898.079000</v>
+        <v>898.07899999999995</v>
       </c>
       <c r="D9" s="1">
-        <v>-202.561000</v>
+        <v>-202.56100000000001</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>65899.507480</v>
+        <v>65899.50748</v>
       </c>
       <c r="G9" s="1">
-        <v>18.305419</v>
+        <v>18.305419000000001</v>
       </c>
       <c r="H9" s="1">
-        <v>916.678000</v>
+        <v>916.678</v>
       </c>
       <c r="I9" s="1">
-        <v>-171.621000</v>
+        <v>-171.62100000000001</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>65910.055393</v>
+        <v>65910.055393000002</v>
       </c>
       <c r="L9" s="1">
         <v>18.308349</v>
       </c>
       <c r="M9" s="1">
-        <v>940.959000</v>
+        <v>940.95899999999995</v>
       </c>
       <c r="N9" s="1">
-        <v>-121.991000</v>
+        <v>-121.991</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>65920.498163</v>
+        <v>65920.498162999997</v>
       </c>
       <c r="Q9" s="1">
         <v>18.311249</v>
       </c>
       <c r="R9" s="1">
-        <v>948.038000</v>
+        <v>948.03800000000001</v>
       </c>
       <c r="S9" s="1">
-        <v>-105.367000</v>
+        <v>-105.367</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>65931.034213</v>
+        <v>65931.034213000006</v>
       </c>
       <c r="V9" s="1">
         <v>18.314176</v>
       </c>
       <c r="W9" s="1">
-        <v>954.913000</v>
+        <v>954.91300000000001</v>
       </c>
       <c r="X9" s="1">
-        <v>-89.999100</v>
+        <v>-89.999099999999999</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>65941.513687</v>
+        <v>65941.513686999999</v>
       </c>
       <c r="AA9" s="1">
-        <v>18.317087</v>
+        <v>18.317087000000001</v>
       </c>
       <c r="AB9" s="1">
-        <v>962.138000</v>
+        <v>962.13800000000003</v>
       </c>
       <c r="AC9" s="1">
-        <v>-77.778500</v>
+        <v>-77.778499999999994</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>65952.037769</v>
+        <v>65952.037769000002</v>
       </c>
       <c r="AF9" s="1">
-        <v>18.320010</v>
+        <v>18.32001</v>
       </c>
       <c r="AG9" s="1">
-        <v>966.647000</v>
+        <v>966.64700000000005</v>
       </c>
       <c r="AH9" s="1">
-        <v>-75.244700</v>
+        <v>-75.244699999999995</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>65962.527164</v>
+        <v>65962.527163999999</v>
       </c>
       <c r="AK9" s="1">
         <v>18.322924</v>
       </c>
       <c r="AL9" s="1">
-        <v>974.059000</v>
+        <v>974.05899999999997</v>
       </c>
       <c r="AM9" s="1">
-        <v>-79.775700</v>
+        <v>-79.775700000000001</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>65972.897022</v>
+        <v>65972.897022000005</v>
       </c>
       <c r="AP9" s="1">
-        <v>18.325805</v>
+        <v>18.325804999999999</v>
       </c>
       <c r="AQ9" s="1">
-        <v>982.121000</v>
+        <v>982.12099999999998</v>
       </c>
       <c r="AR9" s="1">
-        <v>-91.178500</v>
+        <v>-91.1785</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>65983.629953</v>
+        <v>65983.629952999996</v>
       </c>
       <c r="AU9" s="1">
-        <v>18.328786</v>
+        <v>18.328786000000001</v>
       </c>
       <c r="AV9" s="1">
-        <v>991.921000</v>
+        <v>991.92100000000005</v>
       </c>
       <c r="AW9" s="1">
-        <v>-108.764000</v>
+        <v>-108.764</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>65994.287985</v>
+        <v>65994.287985000003</v>
       </c>
       <c r="AZ9" s="1">
         <v>18.331747</v>
       </c>
       <c r="BA9" s="1">
-        <v>1000.180000</v>
+        <v>1000.18</v>
       </c>
       <c r="BB9" s="1">
-        <v>-124.310000</v>
+        <v>-124.31</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>66005.288756</v>
+        <v>66005.288755999994</v>
       </c>
       <c r="BE9" s="1">
         <v>18.334802</v>
       </c>
       <c r="BF9" s="1">
-        <v>1038.980000</v>
+        <v>1038.98</v>
       </c>
       <c r="BG9" s="1">
-        <v>-196.057000</v>
+        <v>-196.05699999999999</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>66016.048966</v>
+        <v>66016.048966000002</v>
       </c>
       <c r="BJ9" s="1">
-        <v>18.337791</v>
+        <v>18.337790999999999</v>
       </c>
       <c r="BK9" s="1">
-        <v>1106.510000</v>
+        <v>1106.51</v>
       </c>
       <c r="BL9" s="1">
-        <v>-311.876000</v>
+        <v>-311.87599999999998</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>66027.313464</v>
+        <v>66027.313464000006</v>
       </c>
       <c r="BO9" s="1">
-        <v>18.340920</v>
+        <v>18.340920000000001</v>
       </c>
       <c r="BP9" s="1">
-        <v>1216.160000</v>
+        <v>1216.1600000000001</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-492.643000</v>
+        <v>-492.64299999999997</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>66037.918569</v>
+        <v>66037.918569000001</v>
       </c>
       <c r="BT9" s="1">
-        <v>18.343866</v>
+        <v>18.343865999999998</v>
       </c>
       <c r="BU9" s="1">
-        <v>1338.360000</v>
+        <v>1338.36</v>
       </c>
       <c r="BV9" s="1">
-        <v>-689.263000</v>
+        <v>-689.26300000000003</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>66048.719983</v>
+        <v>66048.719983000003</v>
       </c>
       <c r="BY9" s="1">
         <v>18.346867</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1474.610000</v>
+        <v>1474.61</v>
       </c>
       <c r="CA9" s="1">
-        <v>-897.888000</v>
+        <v>-897.88800000000003</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>66060.783145</v>
+        <v>66060.783144999994</v>
       </c>
       <c r="CD9" s="1">
-        <v>18.350218</v>
+        <v>18.350218000000002</v>
       </c>
       <c r="CE9" s="1">
-        <v>1827.700000</v>
+        <v>1827.7</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1390.790000</v>
+        <v>-1390.79</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>65889.233873</v>
+        <v>65889.233873000005</v>
       </c>
       <c r="B10" s="1">
-        <v>18.302565</v>
+        <v>18.302565000000001</v>
       </c>
       <c r="C10" s="1">
-        <v>898.346000</v>
+        <v>898.346</v>
       </c>
       <c r="D10" s="1">
-        <v>-202.743000</v>
+        <v>-202.74299999999999</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>65899.925600</v>
+        <v>65899.925600000002</v>
       </c>
       <c r="G10" s="1">
-        <v>18.305535</v>
+        <v>18.305534999999999</v>
       </c>
       <c r="H10" s="1">
-        <v>916.788000</v>
+        <v>916.78800000000001</v>
       </c>
       <c r="I10" s="1">
-        <v>-171.919000</v>
+        <v>-171.91900000000001</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>65910.333152</v>
+        <v>65910.333152000007</v>
       </c>
       <c r="L10" s="1">
-        <v>18.308426</v>
+        <v>18.308426000000001</v>
       </c>
       <c r="M10" s="1">
-        <v>940.961000</v>
+        <v>940.96100000000001</v>
       </c>
       <c r="N10" s="1">
-        <v>-122.087000</v>
+        <v>-122.087</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>65920.847348</v>
+        <v>65920.847347999996</v>
       </c>
       <c r="Q10" s="1">
         <v>18.311346</v>
       </c>
       <c r="R10" s="1">
-        <v>948.037000</v>
+        <v>948.03700000000003</v>
       </c>
       <c r="S10" s="1">
-        <v>-105.413000</v>
+        <v>-105.413</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>65931.377908</v>
+        <v>65931.377907999995</v>
       </c>
       <c r="V10" s="1">
-        <v>18.314272</v>
+        <v>18.314271999999999</v>
       </c>
       <c r="W10" s="1">
-        <v>954.857000</v>
+        <v>954.85699999999997</v>
       </c>
       <c r="X10" s="1">
-        <v>-89.937700</v>
+        <v>-89.937700000000007</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
         <v>65941.861351</v>
       </c>
       <c r="AA10" s="1">
-        <v>18.317184</v>
+        <v>18.317184000000001</v>
       </c>
       <c r="AB10" s="1">
-        <v>962.196000</v>
+        <v>962.19600000000003</v>
       </c>
       <c r="AC10" s="1">
-        <v>-77.823300</v>
+        <v>-77.823300000000003</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>65952.724730</v>
+        <v>65952.724730000002</v>
       </c>
       <c r="AF10" s="1">
-        <v>18.320201</v>
+        <v>18.320201000000001</v>
       </c>
       <c r="AG10" s="1">
-        <v>966.803000</v>
+        <v>966.803</v>
       </c>
       <c r="AH10" s="1">
-        <v>-75.435100</v>
+        <v>-75.435100000000006</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>65963.226026</v>
+        <v>65963.226026000004</v>
       </c>
       <c r="AK10" s="1">
-        <v>18.323118</v>
+        <v>18.323118000000001</v>
       </c>
       <c r="AL10" s="1">
-        <v>974.084000</v>
+        <v>974.08399999999995</v>
       </c>
       <c r="AM10" s="1">
-        <v>-79.784300</v>
+        <v>-79.784300000000002</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>65973.257613</v>
+        <v>65973.257612999994</v>
       </c>
       <c r="AP10" s="1">
-        <v>18.325905</v>
+        <v>18.325904999999999</v>
       </c>
       <c r="AQ10" s="1">
-        <v>982.116000</v>
+        <v>982.11599999999999</v>
       </c>
       <c r="AR10" s="1">
-        <v>-91.160500</v>
+        <v>-91.160499999999999</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>65983.999471</v>
+        <v>65983.999471000003</v>
       </c>
       <c r="AU10" s="1">
         <v>18.328889</v>
       </c>
       <c r="AV10" s="1">
-        <v>991.912000</v>
+        <v>991.91200000000003</v>
       </c>
       <c r="AW10" s="1">
-        <v>-108.756000</v>
+        <v>-108.756</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>65994.648117</v>
+        <v>65994.648117000004</v>
       </c>
       <c r="AZ10" s="1">
         <v>18.331847</v>
       </c>
       <c r="BA10" s="1">
-        <v>1000.170000</v>
+        <v>1000.17</v>
       </c>
       <c r="BB10" s="1">
-        <v>-124.318000</v>
+        <v>-124.318</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>66005.962850</v>
+        <v>66005.962849999996</v>
       </c>
       <c r="BE10" s="1">
-        <v>18.334990</v>
+        <v>18.334990000000001</v>
       </c>
       <c r="BF10" s="1">
-        <v>1038.970000</v>
+        <v>1038.97</v>
       </c>
       <c r="BG10" s="1">
-        <v>-196.057000</v>
+        <v>-196.05699999999999</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>66016.777625</v>
+        <v>66016.777625000002</v>
       </c>
       <c r="BJ10" s="1">
-        <v>18.337994</v>
+        <v>18.337993999999998</v>
       </c>
       <c r="BK10" s="1">
-        <v>1106.490000</v>
+        <v>1106.49</v>
       </c>
       <c r="BL10" s="1">
-        <v>-311.900000</v>
+        <v>-311.89999999999998</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>66027.446038</v>
+        <v>66027.446037999995</v>
       </c>
       <c r="BO10" s="1">
         <v>18.340957</v>
       </c>
       <c r="BP10" s="1">
-        <v>1216.140000</v>
+        <v>1216.1400000000001</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-492.664000</v>
+        <v>-492.66399999999999</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>66038.352569</v>
+        <v>66038.352568999995</v>
       </c>
       <c r="BT10" s="1">
-        <v>18.343987</v>
+        <v>18.343986999999998</v>
       </c>
       <c r="BU10" s="1">
-        <v>1338.390000</v>
+        <v>1338.39</v>
       </c>
       <c r="BV10" s="1">
-        <v>-689.192000</v>
+        <v>-689.19200000000001</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>66049.134107</v>
+        <v>66049.134107000005</v>
       </c>
       <c r="BY10" s="1">
-        <v>18.346982</v>
+        <v>18.346982000000001</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1474.580000</v>
+        <v>1474.58</v>
       </c>
       <c r="CA10" s="1">
-        <v>-897.888000</v>
+        <v>-897.88800000000003</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>66061.299482</v>
+        <v>66061.299482000002</v>
       </c>
       <c r="CD10" s="1">
-        <v>18.350361</v>
+        <v>18.350360999999999</v>
       </c>
       <c r="CE10" s="1">
-        <v>1827.760000</v>
+        <v>1827.76</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1391.200000</v>
+        <v>-1391.2</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>65889.503697</v>
+        <v>65889.503696999993</v>
       </c>
       <c r="B11" s="1">
-        <v>18.302640</v>
+        <v>18.30264</v>
       </c>
       <c r="C11" s="1">
-        <v>898.159000</v>
+        <v>898.15899999999999</v>
       </c>
       <c r="D11" s="1">
-        <v>-202.788000</v>
+        <v>-202.78800000000001</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>65900.268831</v>
+        <v>65900.268830999994</v>
       </c>
       <c r="G11" s="1">
-        <v>18.305630</v>
+        <v>18.305630000000001</v>
       </c>
       <c r="H11" s="1">
-        <v>916.622000</v>
+        <v>916.62199999999996</v>
       </c>
       <c r="I11" s="1">
-        <v>-171.860000</v>
+        <v>-171.86</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>65910.671921</v>
+        <v>65910.671921000001</v>
       </c>
       <c r="L11" s="1">
-        <v>18.308520</v>
+        <v>18.308520000000001</v>
       </c>
       <c r="M11" s="1">
-        <v>940.920000</v>
+        <v>940.92</v>
       </c>
       <c r="N11" s="1">
-        <v>-122.038000</v>
+        <v>-122.038</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>65921.195539</v>
+        <v>65921.195538999993</v>
       </c>
       <c r="Q11" s="1">
-        <v>18.311443</v>
+        <v>18.311443000000001</v>
       </c>
       <c r="R11" s="1">
-        <v>948.070000</v>
+        <v>948.07</v>
       </c>
       <c r="S11" s="1">
-        <v>-105.411000</v>
+        <v>-105.411</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>65931.723125</v>
+        <v>65931.723125000004</v>
       </c>
       <c r="V11" s="1">
-        <v>18.314368</v>
+        <v>18.314368000000002</v>
       </c>
       <c r="W11" s="1">
-        <v>954.765000</v>
+        <v>954.76499999999999</v>
       </c>
       <c r="X11" s="1">
-        <v>-89.933400</v>
+        <v>-89.933400000000006</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>65942.561206</v>
+        <v>65942.561205999998</v>
       </c>
       <c r="AA11" s="1">
-        <v>18.317378</v>
+        <v>18.317378000000001</v>
       </c>
       <c r="AB11" s="1">
-        <v>962.124000</v>
+        <v>962.12400000000002</v>
       </c>
       <c r="AC11" s="1">
-        <v>-77.850500</v>
+        <v>-77.850499999999997</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>65953.068456</v>
+        <v>65953.068455999994</v>
       </c>
       <c r="AF11" s="1">
         <v>18.320297</v>
       </c>
       <c r="AG11" s="1">
-        <v>966.986000</v>
+        <v>966.98599999999999</v>
       </c>
       <c r="AH11" s="1">
-        <v>-75.368600</v>
+        <v>-75.368600000000001</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>65963.576241</v>
+        <v>65963.576241000002</v>
       </c>
       <c r="AK11" s="1">
-        <v>18.323216</v>
+        <v>18.323215999999999</v>
       </c>
       <c r="AL11" s="1">
-        <v>974.077000</v>
+        <v>974.077</v>
       </c>
       <c r="AM11" s="1">
-        <v>-79.766700</v>
+        <v>-79.7667</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>65973.618733</v>
+        <v>65973.618732999996</v>
       </c>
       <c r="AP11" s="1">
-        <v>18.326005</v>
+        <v>18.326004999999999</v>
       </c>
       <c r="AQ11" s="1">
-        <v>982.125000</v>
+        <v>982.125</v>
       </c>
       <c r="AR11" s="1">
-        <v>-91.184400</v>
+        <v>-91.184399999999997</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>65984.671054</v>
+        <v>65984.671054000006</v>
       </c>
       <c r="AU11" s="1">
         <v>18.329075</v>
       </c>
       <c r="AV11" s="1">
-        <v>991.937000</v>
+        <v>991.93700000000001</v>
       </c>
       <c r="AW11" s="1">
-        <v>-108.728000</v>
+        <v>-108.72799999999999</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>65995.309249</v>
+        <v>65995.309248999998</v>
       </c>
       <c r="AZ11" s="1">
-        <v>18.332030</v>
+        <v>18.33203</v>
       </c>
       <c r="BA11" s="1">
-        <v>1000.150000</v>
+        <v>1000.15</v>
       </c>
       <c r="BB11" s="1">
-        <v>-124.311000</v>
+        <v>-124.31100000000001</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>66006.397831</v>
+        <v>66006.397830999995</v>
       </c>
       <c r="BE11" s="1">
-        <v>18.335111</v>
+        <v>18.335111000000001</v>
       </c>
       <c r="BF11" s="1">
-        <v>1039.010000</v>
+        <v>1039.01</v>
       </c>
       <c r="BG11" s="1">
-        <v>-196.068000</v>
+        <v>-196.06800000000001</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>66017.200676</v>
+        <v>66017.200675999993</v>
       </c>
       <c r="BJ11" s="1">
-        <v>18.338111</v>
+        <v>18.338111000000001</v>
       </c>
       <c r="BK11" s="1">
-        <v>1106.490000</v>
+        <v>1106.49</v>
       </c>
       <c r="BL11" s="1">
-        <v>-311.899000</v>
+        <v>-311.899</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>66027.857221</v>
+        <v>66027.857220999998</v>
       </c>
       <c r="BO11" s="1">
-        <v>18.341071</v>
+        <v>18.341070999999999</v>
       </c>
       <c r="BP11" s="1">
-        <v>1216.140000</v>
+        <v>1216.1400000000001</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-492.661000</v>
+        <v>-492.661</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>66038.783124</v>
+        <v>66038.783123999994</v>
       </c>
       <c r="BT11" s="1">
         <v>18.344106</v>
       </c>
       <c r="BU11" s="1">
-        <v>1338.290000</v>
+        <v>1338.29</v>
       </c>
       <c r="BV11" s="1">
-        <v>-689.261000</v>
+        <v>-689.26099999999997</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>66049.590920</v>
+        <v>66049.590920000002</v>
       </c>
       <c r="BY11" s="1">
         <v>18.347109</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1474.620000</v>
+        <v>1474.62</v>
       </c>
       <c r="CA11" s="1">
-        <v>-897.859000</v>
+        <v>-897.85900000000004</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>66061.850536</v>
+        <v>66061.850535999998</v>
       </c>
       <c r="CD11" s="1">
         <v>18.350514</v>
       </c>
       <c r="CE11" s="1">
-        <v>1826.920000</v>
+        <v>1826.92</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1391.610000</v>
+        <v>-1391.61</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
         <v>65889.846395</v>
       </c>
       <c r="B12" s="1">
-        <v>18.302735</v>
+        <v>18.302734999999998</v>
       </c>
       <c r="C12" s="1">
-        <v>898.264000</v>
+        <v>898.26400000000001</v>
       </c>
       <c r="D12" s="1">
-        <v>-202.749000</v>
+        <v>-202.749</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>65900.614573</v>
+        <v>65900.614572999999</v>
       </c>
       <c r="G12" s="1">
         <v>18.305726</v>
       </c>
       <c r="H12" s="1">
-        <v>916.350000</v>
+        <v>916.35</v>
       </c>
       <c r="I12" s="1">
-        <v>-171.978000</v>
+        <v>-171.97800000000001</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>65911.022095</v>
+        <v>65911.022094999993</v>
       </c>
       <c r="L12" s="1">
-        <v>18.308617</v>
+        <v>18.308617000000002</v>
       </c>
       <c r="M12" s="1">
-        <v>940.919000</v>
+        <v>940.91899999999998</v>
       </c>
       <c r="N12" s="1">
-        <v>-122.109000</v>
+        <v>-122.10899999999999</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>65921.894898</v>
+        <v>65921.894897999999</v>
       </c>
       <c r="Q12" s="1">
-        <v>18.311637</v>
+        <v>18.311637000000001</v>
       </c>
       <c r="R12" s="1">
-        <v>948.013000</v>
+        <v>948.01300000000003</v>
       </c>
       <c r="S12" s="1">
-        <v>-105.418000</v>
+        <v>-105.41800000000001</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>65932.408101</v>
+        <v>65932.408100999994</v>
       </c>
       <c r="V12" s="1">
-        <v>18.314558</v>
+        <v>18.314558000000002</v>
       </c>
       <c r="W12" s="1">
-        <v>954.899000</v>
+        <v>954.899</v>
       </c>
       <c r="X12" s="1">
-        <v>-89.940800</v>
+        <v>-89.940799999999996</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>65942.909397</v>
+        <v>65942.909396999996</v>
       </c>
       <c r="AA12" s="1">
-        <v>18.317475</v>
+        <v>18.317475000000002</v>
       </c>
       <c r="AB12" s="1">
-        <v>962.169000</v>
+        <v>962.16899999999998</v>
       </c>
       <c r="AC12" s="1">
-        <v>-77.811900</v>
+        <v>-77.811899999999994</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
         <v>65953.411689</v>
       </c>
       <c r="AF12" s="1">
-        <v>18.320392</v>
+        <v>18.320391999999998</v>
       </c>
       <c r="AG12" s="1">
-        <v>966.901000</v>
+        <v>966.90099999999995</v>
       </c>
       <c r="AH12" s="1">
-        <v>-75.345900</v>
+        <v>-75.3459</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>65963.921914</v>
+        <v>65963.921914000006</v>
       </c>
       <c r="AK12" s="1">
-        <v>18.323312</v>
+        <v>18.323312000000001</v>
       </c>
       <c r="AL12" s="1">
-        <v>974.118000</v>
+        <v>974.11800000000005</v>
       </c>
       <c r="AM12" s="1">
-        <v>-79.765800</v>
+        <v>-79.765799999999999</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>65974.283868</v>
+        <v>65974.283867999999</v>
       </c>
       <c r="AP12" s="1">
-        <v>18.326190</v>
+        <v>18.32619</v>
       </c>
       <c r="AQ12" s="1">
-        <v>982.108000</v>
+        <v>982.10799999999995</v>
       </c>
       <c r="AR12" s="1">
-        <v>-91.200600</v>
+        <v>-91.200599999999994</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>65985.096622</v>
+        <v>65985.096621999997</v>
       </c>
       <c r="AU12" s="1">
-        <v>18.329194</v>
+        <v>18.329194000000001</v>
       </c>
       <c r="AV12" s="1">
-        <v>991.926000</v>
+        <v>991.92600000000004</v>
       </c>
       <c r="AW12" s="1">
-        <v>-108.750000</v>
+        <v>-108.75</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>65995.758624</v>
+        <v>65995.758623999995</v>
       </c>
       <c r="AZ12" s="1">
         <v>18.332155</v>
       </c>
       <c r="BA12" s="1">
-        <v>1000.150000</v>
+        <v>1000.15</v>
       </c>
       <c r="BB12" s="1">
-        <v>-124.313000</v>
+        <v>-124.313</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
         <v>66006.758898</v>
       </c>
       <c r="BE12" s="1">
-        <v>18.335211</v>
+        <v>18.335211000000001</v>
       </c>
       <c r="BF12" s="1">
-        <v>1038.990000</v>
+        <v>1038.99</v>
       </c>
       <c r="BG12" s="1">
-        <v>-196.066000</v>
+        <v>-196.066</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>66017.601480</v>
+        <v>66017.601479999998</v>
       </c>
       <c r="BJ12" s="1">
-        <v>18.338223</v>
+        <v>18.338222999999999</v>
       </c>
       <c r="BK12" s="1">
-        <v>1106.500000</v>
+        <v>1106.5</v>
       </c>
       <c r="BL12" s="1">
-        <v>-311.899000</v>
+        <v>-311.899</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>66028.252532</v>
+        <v>66028.252531999999</v>
       </c>
       <c r="BO12" s="1">
-        <v>18.341181</v>
+        <v>18.341180999999999</v>
       </c>
       <c r="BP12" s="1">
-        <v>1216.180000</v>
+        <v>1216.18</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-492.644000</v>
+        <v>-492.64400000000001</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>66039.206678</v>
+        <v>66039.206678000002</v>
       </c>
       <c r="BT12" s="1">
-        <v>18.344224</v>
+        <v>18.344224000000001</v>
       </c>
       <c r="BU12" s="1">
-        <v>1338.370000</v>
+        <v>1338.37</v>
       </c>
       <c r="BV12" s="1">
-        <v>-689.233000</v>
+        <v>-689.23299999999995</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>66050.037816</v>
+        <v>66050.037815999996</v>
       </c>
       <c r="BY12" s="1">
-        <v>18.347233</v>
+        <v>18.347232999999999</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1474.640000</v>
+        <v>1474.64</v>
       </c>
       <c r="CA12" s="1">
-        <v>-897.890000</v>
+        <v>-897.89</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>66062.381753</v>
+        <v>66062.381752999994</v>
       </c>
       <c r="CD12" s="1">
         <v>18.350662</v>
       </c>
       <c r="CE12" s="1">
-        <v>1827.920000</v>
+        <v>1827.92</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1390.920000</v>
+        <v>-1390.92</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>65890.187643</v>
+        <v>65890.187642999997</v>
       </c>
       <c r="B13" s="1">
-        <v>18.302830</v>
+        <v>18.30283</v>
       </c>
       <c r="C13" s="1">
-        <v>898.102000</v>
+        <v>898.10199999999998</v>
       </c>
       <c r="D13" s="1">
-        <v>-202.524000</v>
+        <v>-202.524</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>65901.302533</v>
+        <v>65901.302532999995</v>
       </c>
       <c r="G13" s="1">
-        <v>18.305917</v>
+        <v>18.305917000000001</v>
       </c>
       <c r="H13" s="1">
-        <v>917.036000</v>
+        <v>917.03599999999994</v>
       </c>
       <c r="I13" s="1">
-        <v>-171.663000</v>
+        <v>-171.66300000000001</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
         <v>65911.712065</v>
@@ -3338,2628 +3754,2628 @@
         <v>18.308809</v>
       </c>
       <c r="M13" s="1">
-        <v>941.017000</v>
+        <v>941.01700000000005</v>
       </c>
       <c r="N13" s="1">
-        <v>-122.104000</v>
+        <v>-122.104</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
         <v>65922.240609</v>
       </c>
       <c r="Q13" s="1">
-        <v>18.311734</v>
+        <v>18.311734000000001</v>
       </c>
       <c r="R13" s="1">
-        <v>947.998000</v>
+        <v>947.99800000000005</v>
       </c>
       <c r="S13" s="1">
-        <v>-105.391000</v>
+        <v>-105.39100000000001</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>65932.749844</v>
+        <v>65932.749844000005</v>
       </c>
       <c r="V13" s="1">
         <v>18.314653</v>
       </c>
       <c r="W13" s="1">
-        <v>954.843000</v>
+        <v>954.84299999999996</v>
       </c>
       <c r="X13" s="1">
-        <v>-89.990800</v>
+        <v>-89.990799999999993</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>65943.256629</v>
+        <v>65943.256628999996</v>
       </c>
       <c r="AA13" s="1">
-        <v>18.317571</v>
+        <v>18.317571000000001</v>
       </c>
       <c r="AB13" s="1">
-        <v>962.162000</v>
+        <v>962.16200000000003</v>
       </c>
       <c r="AC13" s="1">
-        <v>-77.821000</v>
+        <v>-77.820999999999998</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>65954.061943</v>
+        <v>65954.061942999993</v>
       </c>
       <c r="AF13" s="1">
         <v>18.320573</v>
       </c>
       <c r="AG13" s="1">
-        <v>966.890000</v>
+        <v>966.89</v>
       </c>
       <c r="AH13" s="1">
-        <v>-75.354400</v>
+        <v>-75.354399999999998</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>65964.590552</v>
+        <v>65964.590551999994</v>
       </c>
       <c r="AK13" s="1">
         <v>18.323497</v>
       </c>
       <c r="AL13" s="1">
-        <v>974.080000</v>
+        <v>974.08</v>
       </c>
       <c r="AM13" s="1">
-        <v>-79.761200</v>
+        <v>-79.761200000000002</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>65974.726796</v>
+        <v>65974.726796000003</v>
       </c>
       <c r="AP13" s="1">
-        <v>18.326313</v>
+        <v>18.326312999999999</v>
       </c>
       <c r="AQ13" s="1">
-        <v>982.141000</v>
+        <v>982.14099999999996</v>
       </c>
       <c r="AR13" s="1">
-        <v>-91.188300</v>
+        <v>-91.188299999999998</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>65985.490445</v>
+        <v>65985.490445000003</v>
       </c>
       <c r="AU13" s="1">
-        <v>18.329303</v>
+        <v>18.329302999999999</v>
       </c>
       <c r="AV13" s="1">
-        <v>991.921000</v>
+        <v>991.92100000000005</v>
       </c>
       <c r="AW13" s="1">
-        <v>-108.747000</v>
+        <v>-108.747</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>65996.116241</v>
+        <v>65996.116240999996</v>
       </c>
       <c r="AZ13" s="1">
         <v>18.332255</v>
       </c>
       <c r="BA13" s="1">
-        <v>1000.170000</v>
+        <v>1000.17</v>
       </c>
       <c r="BB13" s="1">
-        <v>-124.328000</v>
+        <v>-124.328</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>66007.122466</v>
+        <v>66007.122466000001</v>
       </c>
       <c r="BE13" s="1">
-        <v>18.335312</v>
+        <v>18.335311999999998</v>
       </c>
       <c r="BF13" s="1">
-        <v>1038.980000</v>
+        <v>1038.98</v>
       </c>
       <c r="BG13" s="1">
-        <v>-196.065000</v>
+        <v>-196.065</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>66018.301298</v>
+        <v>66018.301298000006</v>
       </c>
       <c r="BJ13" s="1">
         <v>18.338417</v>
       </c>
       <c r="BK13" s="1">
-        <v>1106.500000</v>
+        <v>1106.5</v>
       </c>
       <c r="BL13" s="1">
-        <v>-311.895000</v>
+        <v>-311.89499999999998</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>66028.679588</v>
+        <v>66028.679587999999</v>
       </c>
       <c r="BO13" s="1">
-        <v>18.341300</v>
+        <v>18.3413</v>
       </c>
       <c r="BP13" s="1">
-        <v>1216.150000</v>
+        <v>1216.1500000000001</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-492.671000</v>
+        <v>-492.67099999999999</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>66039.626327</v>
+        <v>66039.626327000005</v>
       </c>
       <c r="BT13" s="1">
         <v>18.344341</v>
       </c>
       <c r="BU13" s="1">
-        <v>1338.280000</v>
+        <v>1338.28</v>
       </c>
       <c r="BV13" s="1">
-        <v>-689.277000</v>
+        <v>-689.27700000000004</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>66050.461400</v>
+        <v>66050.4614</v>
       </c>
       <c r="BY13" s="1">
-        <v>18.347350</v>
+        <v>18.347349999999999</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1474.620000</v>
+        <v>1474.62</v>
       </c>
       <c r="CA13" s="1">
-        <v>-897.784000</v>
+        <v>-897.78399999999999</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>66062.898123</v>
+        <v>66062.898123000006</v>
       </c>
       <c r="CD13" s="1">
-        <v>18.350805</v>
+        <v>18.350805000000001</v>
       </c>
       <c r="CE13" s="1">
-        <v>1827.050000</v>
+        <v>1827.05</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1389.990000</v>
+        <v>-1389.99</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>65890.871167</v>
+        <v>65890.871167000005</v>
       </c>
       <c r="B14" s="1">
-        <v>18.303020</v>
+        <v>18.30302</v>
       </c>
       <c r="C14" s="1">
-        <v>898.196000</v>
+        <v>898.19600000000003</v>
       </c>
       <c r="D14" s="1">
-        <v>-202.775000</v>
+        <v>-202.77500000000001</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>65901.647721</v>
+        <v>65901.647721000001</v>
       </c>
       <c r="G14" s="1">
         <v>18.306013</v>
       </c>
       <c r="H14" s="1">
-        <v>916.500000</v>
+        <v>916.5</v>
       </c>
       <c r="I14" s="1">
-        <v>-172.034000</v>
+        <v>-172.03399999999999</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>65912.060256</v>
+        <v>65912.060255999997</v>
       </c>
       <c r="L14" s="1">
         <v>18.308906</v>
       </c>
       <c r="M14" s="1">
-        <v>940.865000</v>
+        <v>940.86500000000001</v>
       </c>
       <c r="N14" s="1">
-        <v>-122.137000</v>
+        <v>-122.137</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>65922.591280</v>
+        <v>65922.591279999993</v>
       </c>
       <c r="Q14" s="1">
-        <v>18.311831</v>
+        <v>18.311831000000002</v>
       </c>
       <c r="R14" s="1">
-        <v>947.983000</v>
+        <v>947.98299999999995</v>
       </c>
       <c r="S14" s="1">
-        <v>-105.360000</v>
+        <v>-105.36</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>65933.097538</v>
+        <v>65933.097538000002</v>
       </c>
       <c r="V14" s="1">
-        <v>18.314749</v>
+        <v>18.314748999999999</v>
       </c>
       <c r="W14" s="1">
-        <v>954.804000</v>
+        <v>954.80399999999997</v>
       </c>
       <c r="X14" s="1">
-        <v>-89.902000</v>
+        <v>-89.902000000000001</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>65943.917796</v>
+        <v>65943.917795999994</v>
       </c>
       <c r="AA14" s="1">
-        <v>18.317755</v>
+        <v>18.317754999999998</v>
       </c>
       <c r="AB14" s="1">
-        <v>962.151000</v>
+        <v>962.15099999999995</v>
       </c>
       <c r="AC14" s="1">
-        <v>-77.854400</v>
+        <v>-77.854399999999998</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>65954.441414</v>
+        <v>65954.441414000001</v>
       </c>
       <c r="AF14" s="1">
-        <v>18.320678</v>
+        <v>18.320678000000001</v>
       </c>
       <c r="AG14" s="1">
-        <v>966.914000</v>
+        <v>966.91399999999999</v>
       </c>
       <c r="AH14" s="1">
-        <v>-75.367500</v>
+        <v>-75.367500000000007</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>65964.969088</v>
+        <v>65964.969087999998</v>
       </c>
       <c r="AK14" s="1">
-        <v>18.323603</v>
+        <v>18.323602999999999</v>
       </c>
       <c r="AL14" s="1">
-        <v>974.089000</v>
+        <v>974.08900000000006</v>
       </c>
       <c r="AM14" s="1">
-        <v>-79.797400</v>
+        <v>-79.797399999999996</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>65975.086364</v>
+        <v>65975.086364000003</v>
       </c>
       <c r="AP14" s="1">
-        <v>18.326413</v>
+        <v>18.326412999999999</v>
       </c>
       <c r="AQ14" s="1">
-        <v>982.106000</v>
+        <v>982.10599999999999</v>
       </c>
       <c r="AR14" s="1">
-        <v>-91.188000</v>
+        <v>-91.188000000000002</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>65985.852525</v>
+        <v>65985.852524999995</v>
       </c>
       <c r="AU14" s="1">
-        <v>18.329403</v>
+        <v>18.329402999999999</v>
       </c>
       <c r="AV14" s="1">
-        <v>991.908000</v>
+        <v>991.90800000000002</v>
       </c>
       <c r="AW14" s="1">
-        <v>-108.750000</v>
+        <v>-108.75</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>65996.474350</v>
+        <v>65996.474350000004</v>
       </c>
       <c r="AZ14" s="1">
-        <v>18.332354</v>
+        <v>18.332353999999999</v>
       </c>
       <c r="BA14" s="1">
-        <v>1000.170000</v>
+        <v>1000.17</v>
       </c>
       <c r="BB14" s="1">
-        <v>-124.324000</v>
+        <v>-124.324</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>66007.539135</v>
+        <v>66007.539134999999</v>
       </c>
       <c r="BE14" s="1">
         <v>18.335428</v>
       </c>
       <c r="BF14" s="1">
-        <v>1039.020000</v>
+        <v>1039.02</v>
       </c>
       <c r="BG14" s="1">
-        <v>-196.051000</v>
+        <v>-196.05099999999999</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>66018.764561</v>
+        <v>66018.764561000004</v>
       </c>
       <c r="BJ14" s="1">
-        <v>18.338546</v>
+        <v>18.338546000000001</v>
       </c>
       <c r="BK14" s="1">
-        <v>1106.520000</v>
+        <v>1106.52</v>
       </c>
       <c r="BL14" s="1">
-        <v>-311.874000</v>
+        <v>-311.87400000000002</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>66029.069479</v>
+        <v>66029.069478999998</v>
       </c>
       <c r="BO14" s="1">
-        <v>18.341408</v>
+        <v>18.341408000000001</v>
       </c>
       <c r="BP14" s="1">
-        <v>1216.200000</v>
+        <v>1216.2</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-492.623000</v>
+        <v>-492.62299999999999</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>66040.052888</v>
+        <v>66040.052888000006</v>
       </c>
       <c r="BT14" s="1">
-        <v>18.344459</v>
+        <v>18.344459000000001</v>
       </c>
       <c r="BU14" s="1">
-        <v>1338.320000</v>
+        <v>1338.32</v>
       </c>
       <c r="BV14" s="1">
-        <v>-689.280000</v>
+        <v>-689.28</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>66050.882039</v>
+        <v>66050.882039000004</v>
       </c>
       <c r="BY14" s="1">
-        <v>18.347467</v>
+        <v>18.347467000000002</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1474.670000</v>
+        <v>1474.67</v>
       </c>
       <c r="CA14" s="1">
-        <v>-897.728000</v>
+        <v>-897.72799999999995</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>66063.418886</v>
+        <v>66063.418885999999</v>
       </c>
       <c r="CD14" s="1">
-        <v>18.350950</v>
+        <v>18.350950000000001</v>
       </c>
       <c r="CE14" s="1">
-        <v>1826.360000</v>
+        <v>1826.36</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1390.960000</v>
+        <v>-1390.96</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>65891.211418</v>
+        <v>65891.211418000006</v>
       </c>
       <c r="B15" s="1">
-        <v>18.303114</v>
+        <v>18.303114000000001</v>
       </c>
       <c r="C15" s="1">
-        <v>898.175000</v>
+        <v>898.17499999999995</v>
       </c>
       <c r="D15" s="1">
-        <v>-202.573000</v>
+        <v>-202.57300000000001</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>65901.991933</v>
+        <v>65901.991932999998</v>
       </c>
       <c r="G15" s="1">
-        <v>18.306109</v>
+        <v>18.306108999999999</v>
       </c>
       <c r="H15" s="1">
-        <v>916.289000</v>
+        <v>916.28899999999999</v>
       </c>
       <c r="I15" s="1">
-        <v>-171.907000</v>
+        <v>-171.90700000000001</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>65912.406459</v>
+        <v>65912.406459000005</v>
       </c>
       <c r="L15" s="1">
         <v>18.309002</v>
       </c>
       <c r="M15" s="1">
-        <v>941.048000</v>
+        <v>941.048</v>
       </c>
       <c r="N15" s="1">
-        <v>-122.044000</v>
+        <v>-122.044</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>65923.251951</v>
+        <v>65923.251950999998</v>
       </c>
       <c r="Q15" s="1">
-        <v>18.312014</v>
+        <v>18.312014000000001</v>
       </c>
       <c r="R15" s="1">
-        <v>948.045000</v>
+        <v>948.04499999999996</v>
       </c>
       <c r="S15" s="1">
-        <v>-105.331000</v>
+        <v>-105.331</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>65933.787512</v>
+        <v>65933.787511999995</v>
       </c>
       <c r="V15" s="1">
-        <v>18.314941</v>
+        <v>18.314941000000001</v>
       </c>
       <c r="W15" s="1">
-        <v>954.901000</v>
+        <v>954.90099999999995</v>
       </c>
       <c r="X15" s="1">
-        <v>-89.934800</v>
+        <v>-89.934799999999996</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>65944.303653</v>
+        <v>65944.303652999995</v>
       </c>
       <c r="AA15" s="1">
-        <v>18.317862</v>
+        <v>18.317862000000002</v>
       </c>
       <c r="AB15" s="1">
-        <v>962.163000</v>
+        <v>962.16300000000001</v>
       </c>
       <c r="AC15" s="1">
-        <v>-77.860000</v>
+        <v>-77.86</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>65954.786103</v>
+        <v>65954.786103000006</v>
       </c>
       <c r="AF15" s="1">
         <v>18.320774</v>
       </c>
       <c r="AG15" s="1">
-        <v>966.905000</v>
+        <v>966.90499999999997</v>
       </c>
       <c r="AH15" s="1">
-        <v>-75.362700</v>
+        <v>-75.362700000000004</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>65965.319641</v>
+        <v>65965.319640999995</v>
       </c>
       <c r="AK15" s="1">
-        <v>18.323700</v>
+        <v>18.323699999999999</v>
       </c>
       <c r="AL15" s="1">
-        <v>974.081000</v>
+        <v>974.08100000000002</v>
       </c>
       <c r="AM15" s="1">
-        <v>-79.797400</v>
+        <v>-79.797399999999996</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>65975.445009</v>
+        <v>65975.445009000003</v>
       </c>
       <c r="AP15" s="1">
-        <v>18.326513</v>
+        <v>18.326512999999998</v>
       </c>
       <c r="AQ15" s="1">
-        <v>982.105000</v>
+        <v>982.10500000000002</v>
       </c>
       <c r="AR15" s="1">
-        <v>-91.185700</v>
+        <v>-91.185699999999997</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>65986.282588</v>
+        <v>65986.282588000002</v>
       </c>
       <c r="AU15" s="1">
-        <v>18.329523</v>
+        <v>18.329522999999998</v>
       </c>
       <c r="AV15" s="1">
-        <v>991.937000</v>
+        <v>991.93700000000001</v>
       </c>
       <c r="AW15" s="1">
-        <v>-108.727000</v>
+        <v>-108.727</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>65996.889998</v>
+        <v>65996.889997999999</v>
       </c>
       <c r="AZ15" s="1">
         <v>18.332469</v>
       </c>
       <c r="BA15" s="1">
-        <v>1000.170000</v>
+        <v>1000.17</v>
       </c>
       <c r="BB15" s="1">
-        <v>-124.326000</v>
+        <v>-124.32599999999999</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>66007.845135</v>
+        <v>66007.845134999996</v>
       </c>
       <c r="BE15" s="1">
-        <v>18.335513</v>
+        <v>18.335512999999999</v>
       </c>
       <c r="BF15" s="1">
-        <v>1039.000000</v>
+        <v>1039</v>
       </c>
       <c r="BG15" s="1">
-        <v>-196.068000</v>
+        <v>-196.06800000000001</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>66019.143041</v>
+        <v>66019.143041000003</v>
       </c>
       <c r="BJ15" s="1">
-        <v>18.338651</v>
+        <v>18.338650999999999</v>
       </c>
       <c r="BK15" s="1">
-        <v>1106.490000</v>
+        <v>1106.49</v>
       </c>
       <c r="BL15" s="1">
-        <v>-311.873000</v>
+        <v>-311.87299999999999</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
         <v>66029.489556</v>
       </c>
       <c r="BO15" s="1">
-        <v>18.341525</v>
+        <v>18.341525000000001</v>
       </c>
       <c r="BP15" s="1">
-        <v>1216.160000</v>
+        <v>1216.1600000000001</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-492.644000</v>
+        <v>-492.64400000000001</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>66040.464037</v>
+        <v>66040.464036999998</v>
       </c>
       <c r="BT15" s="1">
         <v>18.344573</v>
       </c>
       <c r="BU15" s="1">
-        <v>1338.320000</v>
+        <v>1338.32</v>
       </c>
       <c r="BV15" s="1">
-        <v>-689.257000</v>
+        <v>-689.25699999999995</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>66051.305591</v>
+        <v>66051.305590999997</v>
       </c>
       <c r="BY15" s="1">
-        <v>18.347585</v>
+        <v>18.347584999999999</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1474.660000</v>
+        <v>1474.66</v>
       </c>
       <c r="CA15" s="1">
-        <v>-897.846000</v>
+        <v>-897.846</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>66063.932744</v>
+        <v>66063.932744000005</v>
       </c>
       <c r="CD15" s="1">
-        <v>18.351092</v>
+        <v>18.351092000000001</v>
       </c>
       <c r="CE15" s="1">
-        <v>1826.350000</v>
+        <v>1826.35</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1390.790000</v>
+        <v>-1390.79</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>65891.554646</v>
+        <v>65891.554646000004</v>
       </c>
       <c r="B16" s="1">
-        <v>18.303210</v>
+        <v>18.30321</v>
       </c>
       <c r="C16" s="1">
-        <v>898.227000</v>
+        <v>898.22699999999998</v>
       </c>
       <c r="D16" s="1">
-        <v>-202.813000</v>
+        <v>-202.81299999999999</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>65902.648643</v>
+        <v>65902.648642999993</v>
       </c>
       <c r="G16" s="1">
-        <v>18.306291</v>
+        <v>18.306291000000002</v>
       </c>
       <c r="H16" s="1">
-        <v>916.940000</v>
+        <v>916.94</v>
       </c>
       <c r="I16" s="1">
-        <v>-171.715000</v>
+        <v>-171.715</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>65913.064621</v>
+        <v>65913.064620999998</v>
       </c>
       <c r="L16" s="1">
-        <v>18.309185</v>
+        <v>18.309184999999999</v>
       </c>
       <c r="M16" s="1">
-        <v>941.067000</v>
+        <v>941.06700000000001</v>
       </c>
       <c r="N16" s="1">
-        <v>-121.958000</v>
+        <v>-121.958</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>65923.636874</v>
+        <v>65923.636874000003</v>
       </c>
       <c r="Q16" s="1">
-        <v>18.312121</v>
+        <v>18.312121000000001</v>
       </c>
       <c r="R16" s="1">
-        <v>948.049000</v>
+        <v>948.04899999999998</v>
       </c>
       <c r="S16" s="1">
-        <v>-105.410000</v>
+        <v>-105.41</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>65934.133186</v>
+        <v>65934.133186000006</v>
       </c>
       <c r="V16" s="1">
         <v>18.315037</v>
       </c>
       <c r="W16" s="1">
-        <v>954.775000</v>
+        <v>954.77499999999998</v>
       </c>
       <c r="X16" s="1">
-        <v>-89.964200</v>
+        <v>-89.964200000000005</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>65944.649363</v>
+        <v>65944.649363000004</v>
       </c>
       <c r="AA16" s="1">
-        <v>18.317958</v>
+        <v>18.317958000000001</v>
       </c>
       <c r="AB16" s="1">
-        <v>962.149000</v>
+        <v>962.149</v>
       </c>
       <c r="AC16" s="1">
-        <v>-77.766200</v>
+        <v>-77.766199999999998</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>65955.126359</v>
+        <v>65955.126359000002</v>
       </c>
       <c r="AF16" s="1">
-        <v>18.320868</v>
+        <v>18.320868000000001</v>
       </c>
       <c r="AG16" s="1">
-        <v>966.868000</v>
+        <v>966.86800000000005</v>
       </c>
       <c r="AH16" s="1">
-        <v>-75.332000</v>
+        <v>-75.331999999999994</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>65965.665351</v>
+        <v>65965.665351000003</v>
       </c>
       <c r="AK16" s="1">
-        <v>18.323796</v>
+        <v>18.323796000000002</v>
       </c>
       <c r="AL16" s="1">
-        <v>974.076000</v>
+        <v>974.07600000000002</v>
       </c>
       <c r="AM16" s="1">
-        <v>-79.769000</v>
+        <v>-79.769000000000005</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>65975.860122</v>
+        <v>65975.860121999998</v>
       </c>
       <c r="AP16" s="1">
-        <v>18.326628</v>
+        <v>18.326627999999999</v>
       </c>
       <c r="AQ16" s="1">
-        <v>982.134000</v>
+        <v>982.13400000000001</v>
       </c>
       <c r="AR16" s="1">
-        <v>-91.192700</v>
+        <v>-91.192700000000002</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>65986.582672</v>
+        <v>65986.582672000004</v>
       </c>
       <c r="AU16" s="1">
-        <v>18.329606</v>
+        <v>18.329605999999998</v>
       </c>
       <c r="AV16" s="1">
-        <v>991.910000</v>
+        <v>991.91</v>
       </c>
       <c r="AW16" s="1">
-        <v>-108.749000</v>
+        <v>-108.749</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>65997.191070</v>
+        <v>65997.191070000001</v>
       </c>
       <c r="AZ16" s="1">
-        <v>18.332553</v>
+        <v>18.332553000000001</v>
       </c>
       <c r="BA16" s="1">
-        <v>1000.170000</v>
+        <v>1000.17</v>
       </c>
       <c r="BB16" s="1">
-        <v>-124.300000</v>
+        <v>-124.3</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>66008.204768</v>
+        <v>66008.204767999996</v>
       </c>
       <c r="BE16" s="1">
-        <v>18.335612</v>
+        <v>18.335612000000001</v>
       </c>
       <c r="BF16" s="1">
-        <v>1039.000000</v>
+        <v>1039</v>
       </c>
       <c r="BG16" s="1">
-        <v>-196.079000</v>
+        <v>-196.07900000000001</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>66019.515010</v>
+        <v>66019.515010000003</v>
       </c>
       <c r="BJ16" s="1">
-        <v>18.338754</v>
+        <v>18.338754000000002</v>
       </c>
       <c r="BK16" s="1">
-        <v>1106.500000</v>
+        <v>1106.5</v>
       </c>
       <c r="BL16" s="1">
-        <v>-311.878000</v>
+        <v>-311.87799999999999</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>66029.887842</v>
+        <v>66029.887841999996</v>
       </c>
       <c r="BO16" s="1">
-        <v>18.341636</v>
+        <v>18.341636000000001</v>
       </c>
       <c r="BP16" s="1">
-        <v>1216.130000</v>
+        <v>1216.1300000000001</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-492.656000</v>
+        <v>-492.65600000000001</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>66040.895685</v>
+        <v>66040.895684999996</v>
       </c>
       <c r="BT16" s="1">
-        <v>18.344693</v>
+        <v>18.344692999999999</v>
       </c>
       <c r="BU16" s="1">
-        <v>1338.310000</v>
+        <v>1338.31</v>
       </c>
       <c r="BV16" s="1">
-        <v>-689.275000</v>
+        <v>-689.27499999999998</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>66052.170117</v>
+        <v>66052.170117000001</v>
       </c>
       <c r="BY16" s="1">
         <v>18.347825</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1474.700000</v>
+        <v>1474.7</v>
       </c>
       <c r="CA16" s="1">
-        <v>-897.890000</v>
+        <v>-897.89</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>66064.486773</v>
+        <v>66064.486772999997</v>
       </c>
       <c r="CD16" s="1">
         <v>18.351246</v>
       </c>
       <c r="CE16" s="1">
-        <v>1826.950000</v>
+        <v>1826.95</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1390.020000</v>
+        <v>-1390.02</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>65892.199448</v>
+        <v>65892.199447999999</v>
       </c>
       <c r="B17" s="1">
-        <v>18.303389</v>
+        <v>18.303388999999999</v>
       </c>
       <c r="C17" s="1">
-        <v>897.947000</v>
+        <v>897.947</v>
       </c>
       <c r="D17" s="1">
-        <v>-202.565000</v>
+        <v>-202.565</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>65903.024645</v>
+        <v>65903.024644999998</v>
       </c>
       <c r="G17" s="1">
-        <v>18.306396</v>
+        <v>18.306395999999999</v>
       </c>
       <c r="H17" s="1">
-        <v>917.093000</v>
+        <v>917.09299999999996</v>
       </c>
       <c r="I17" s="1">
-        <v>-171.574000</v>
+        <v>-171.57400000000001</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>65913.442078</v>
+        <v>65913.442077999993</v>
       </c>
       <c r="L17" s="1">
         <v>18.309289</v>
       </c>
       <c r="M17" s="1">
-        <v>940.980000</v>
+        <v>940.98</v>
       </c>
       <c r="N17" s="1">
-        <v>-121.904000</v>
+        <v>-121.904</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>65923.987022</v>
+        <v>65923.987022000001</v>
       </c>
       <c r="Q17" s="1">
-        <v>18.312219</v>
+        <v>18.312218999999999</v>
       </c>
       <c r="R17" s="1">
-        <v>948.069000</v>
+        <v>948.06899999999996</v>
       </c>
       <c r="S17" s="1">
-        <v>-105.404000</v>
+        <v>-105.404</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>65934.477904</v>
+        <v>65934.477903999999</v>
       </c>
       <c r="V17" s="1">
-        <v>18.315133</v>
+        <v>18.315132999999999</v>
       </c>
       <c r="W17" s="1">
-        <v>954.842000</v>
+        <v>954.84199999999998</v>
       </c>
       <c r="X17" s="1">
-        <v>-89.868700</v>
+        <v>-89.868700000000004</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>65945.000531</v>
+        <v>65945.000530999998</v>
       </c>
       <c r="AA17" s="1">
-        <v>18.318056</v>
+        <v>18.318055999999999</v>
       </c>
       <c r="AB17" s="1">
-        <v>962.143000</v>
+        <v>962.14300000000003</v>
       </c>
       <c r="AC17" s="1">
-        <v>-77.840700</v>
+        <v>-77.840699999999998</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>65955.546469</v>
+        <v>65955.546468999994</v>
       </c>
       <c r="AF17" s="1">
         <v>18.320985</v>
       </c>
       <c r="AG17" s="1">
-        <v>966.876000</v>
+        <v>966.87599999999998</v>
       </c>
       <c r="AH17" s="1">
-        <v>-75.344300</v>
+        <v>-75.344300000000004</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>65966.095880</v>
+        <v>65966.095879999993</v>
       </c>
       <c r="AK17" s="1">
-        <v>18.323916</v>
+        <v>18.323916000000001</v>
       </c>
       <c r="AL17" s="1">
-        <v>974.090000</v>
+        <v>974.09</v>
       </c>
       <c r="AM17" s="1">
-        <v>-79.780400</v>
+        <v>-79.7804</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>65976.170618</v>
+        <v>65976.170618000004</v>
       </c>
       <c r="AP17" s="1">
-        <v>18.326714</v>
+        <v>18.326713999999999</v>
       </c>
       <c r="AQ17" s="1">
-        <v>982.112000</v>
+        <v>982.11199999999997</v>
       </c>
       <c r="AR17" s="1">
-        <v>-91.167400</v>
+        <v>-91.167400000000001</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>65986.946699</v>
+        <v>65986.946698999993</v>
       </c>
       <c r="AU17" s="1">
-        <v>18.329707</v>
+        <v>18.329706999999999</v>
       </c>
       <c r="AV17" s="1">
-        <v>991.909000</v>
+        <v>991.90899999999999</v>
       </c>
       <c r="AW17" s="1">
-        <v>-108.753000</v>
+        <v>-108.753</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>65997.551167</v>
+        <v>65997.551166999998</v>
       </c>
       <c r="AZ17" s="1">
-        <v>18.332653</v>
+        <v>18.332653000000001</v>
       </c>
       <c r="BA17" s="1">
-        <v>1000.160000</v>
+        <v>1000.16</v>
       </c>
       <c r="BB17" s="1">
-        <v>-124.304000</v>
+        <v>-124.304</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>66008.568832</v>
+        <v>66008.568832000004</v>
       </c>
       <c r="BE17" s="1">
-        <v>18.335714</v>
+        <v>18.335713999999999</v>
       </c>
       <c r="BF17" s="1">
-        <v>1038.990000</v>
+        <v>1038.99</v>
       </c>
       <c r="BG17" s="1">
-        <v>-196.069000</v>
+        <v>-196.06899999999999</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
         <v>66019.927184</v>
       </c>
       <c r="BJ17" s="1">
-        <v>18.338869</v>
+        <v>18.338868999999999</v>
       </c>
       <c r="BK17" s="1">
-        <v>1106.490000</v>
+        <v>1106.49</v>
       </c>
       <c r="BL17" s="1">
-        <v>-311.871000</v>
+        <v>-311.87099999999998</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>66030.321346</v>
+        <v>66030.321345999997</v>
       </c>
       <c r="BO17" s="1">
         <v>18.341756</v>
       </c>
       <c r="BP17" s="1">
-        <v>1216.140000</v>
+        <v>1216.1400000000001</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-492.661000</v>
+        <v>-492.661</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>66041.321644</v>
+        <v>66041.321643999996</v>
       </c>
       <c r="BT17" s="1">
-        <v>18.344812</v>
+        <v>18.344812000000001</v>
       </c>
       <c r="BU17" s="1">
-        <v>1338.290000</v>
+        <v>1338.29</v>
       </c>
       <c r="BV17" s="1">
-        <v>-689.240000</v>
+        <v>-689.24</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>66052.617012</v>
+        <v>66052.617012000002</v>
       </c>
       <c r="BY17" s="1">
         <v>18.347949</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1474.580000</v>
+        <v>1474.58</v>
       </c>
       <c r="CA17" s="1">
-        <v>-897.825000</v>
+        <v>-897.82500000000005</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>66065.016996</v>
+        <v>66065.016996000006</v>
       </c>
       <c r="CD17" s="1">
-        <v>18.351394</v>
+        <v>18.351393999999999</v>
       </c>
       <c r="CE17" s="1">
-        <v>1826.580000</v>
+        <v>1826.58</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1391.340000</v>
+        <v>-1391.34</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
         <v>65892.578857</v>
       </c>
       <c r="B18" s="1">
-        <v>18.303494</v>
+        <v>18.303494000000001</v>
       </c>
       <c r="C18" s="1">
-        <v>898.153000</v>
+        <v>898.15300000000002</v>
       </c>
       <c r="D18" s="1">
-        <v>-202.723000</v>
+        <v>-202.72300000000001</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>65903.371305</v>
+        <v>65903.371304999993</v>
       </c>
       <c r="G18" s="1">
-        <v>18.306492</v>
+        <v>18.306491999999999</v>
       </c>
       <c r="H18" s="1">
-        <v>916.725000</v>
+        <v>916.72500000000002</v>
       </c>
       <c r="I18" s="1">
-        <v>-171.597000</v>
+        <v>-171.59700000000001</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>65913.786828</v>
+        <v>65913.786827999997</v>
       </c>
       <c r="L18" s="1">
-        <v>18.309385</v>
+        <v>18.309384999999999</v>
       </c>
       <c r="M18" s="1">
-        <v>940.923000</v>
+        <v>940.923</v>
       </c>
       <c r="N18" s="1">
-        <v>-122.040000</v>
+        <v>-122.04</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>65924.334254</v>
+        <v>65924.334254000001</v>
       </c>
       <c r="Q18" s="1">
-        <v>18.312315</v>
+        <v>18.312315000000002</v>
       </c>
       <c r="R18" s="1">
-        <v>948.033000</v>
+        <v>948.03300000000002</v>
       </c>
       <c r="S18" s="1">
-        <v>-105.366000</v>
+        <v>-105.366</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>65934.905097</v>
+        <v>65934.905096999995</v>
       </c>
       <c r="V18" s="1">
         <v>18.315251</v>
       </c>
       <c r="W18" s="1">
-        <v>954.828000</v>
+        <v>954.82799999999997</v>
       </c>
       <c r="X18" s="1">
-        <v>-89.959600</v>
+        <v>-89.959599999999995</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>65945.426130</v>
+        <v>65945.426130000007</v>
       </c>
       <c r="AA18" s="1">
-        <v>18.318174</v>
+        <v>18.318173999999999</v>
       </c>
       <c r="AB18" s="1">
-        <v>962.178000</v>
+        <v>962.178</v>
       </c>
       <c r="AC18" s="1">
-        <v>-77.781900</v>
+        <v>-77.781899999999993</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>65955.840597</v>
+        <v>65955.840597000002</v>
       </c>
       <c r="AF18" s="1">
-        <v>18.321067</v>
+        <v>18.321066999999999</v>
       </c>
       <c r="AG18" s="1">
-        <v>966.972000</v>
+        <v>966.97199999999998</v>
       </c>
       <c r="AH18" s="1">
-        <v>-75.375300</v>
+        <v>-75.375299999999996</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>65966.375161</v>
+        <v>65966.375161000004</v>
       </c>
       <c r="AK18" s="1">
-        <v>18.323993</v>
+        <v>18.323993000000002</v>
       </c>
       <c r="AL18" s="1">
-        <v>974.086000</v>
+        <v>974.08600000000001</v>
       </c>
       <c r="AM18" s="1">
-        <v>-79.789000</v>
+        <v>-79.789000000000001</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
         <v>65976.530713</v>
       </c>
       <c r="AP18" s="1">
-        <v>18.326814</v>
+        <v>18.326813999999999</v>
       </c>
       <c r="AQ18" s="1">
-        <v>982.106000</v>
+        <v>982.10599999999999</v>
       </c>
       <c r="AR18" s="1">
-        <v>-91.168200</v>
+        <v>-91.168199999999999</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>65987.313244</v>
+        <v>65987.313244000004</v>
       </c>
       <c r="AU18" s="1">
-        <v>18.329809</v>
+        <v>18.329809000000001</v>
       </c>
       <c r="AV18" s="1">
-        <v>991.896000</v>
+        <v>991.89599999999996</v>
       </c>
       <c r="AW18" s="1">
-        <v>-108.744000</v>
+        <v>-108.744</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>65997.908782</v>
+        <v>65997.908781999999</v>
       </c>
       <c r="AZ18" s="1">
-        <v>18.332752</v>
+        <v>18.332751999999999</v>
       </c>
       <c r="BA18" s="1">
-        <v>1000.140000</v>
+        <v>1000.14</v>
       </c>
       <c r="BB18" s="1">
-        <v>-124.313000</v>
+        <v>-124.313</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>66009.288495</v>
+        <v>66009.288495000001</v>
       </c>
       <c r="BE18" s="1">
-        <v>18.335913</v>
+        <v>18.335913000000001</v>
       </c>
       <c r="BF18" s="1">
-        <v>1038.990000</v>
+        <v>1038.99</v>
       </c>
       <c r="BG18" s="1">
-        <v>-196.046000</v>
+        <v>-196.04599999999999</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>66020.288767</v>
+        <v>66020.288767000005</v>
       </c>
       <c r="BJ18" s="1">
-        <v>18.338969</v>
+        <v>18.338968999999999</v>
       </c>
       <c r="BK18" s="1">
-        <v>1106.480000</v>
+        <v>1106.48</v>
       </c>
       <c r="BL18" s="1">
-        <v>-311.878000</v>
+        <v>-311.87799999999999</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>66030.705250</v>
+        <v>66030.705249999999</v>
       </c>
       <c r="BO18" s="1">
         <v>18.341863</v>
       </c>
       <c r="BP18" s="1">
-        <v>1216.130000</v>
+        <v>1216.1300000000001</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-492.626000</v>
+        <v>-492.62599999999998</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>66041.734787</v>
+        <v>66041.734786999994</v>
       </c>
       <c r="BT18" s="1">
-        <v>18.344926</v>
+        <v>18.344926000000001</v>
       </c>
       <c r="BU18" s="1">
-        <v>1338.340000</v>
+        <v>1338.34</v>
       </c>
       <c r="BV18" s="1">
-        <v>-689.286000</v>
+        <v>-689.28599999999994</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>66053.386804</v>
+        <v>66053.386803999994</v>
       </c>
       <c r="BY18" s="1">
         <v>18.348163</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1474.740000</v>
+        <v>1474.74</v>
       </c>
       <c r="CA18" s="1">
-        <v>-897.868000</v>
+        <v>-897.86800000000005</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>66065.845317</v>
+        <v>66065.845316999999</v>
       </c>
       <c r="CD18" s="1">
-        <v>18.351624</v>
+        <v>18.351624000000001</v>
       </c>
       <c r="CE18" s="1">
-        <v>1827.750000</v>
+        <v>1827.75</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1391.510000</v>
+        <v>-1391.51</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
         <v>65892.923079</v>
       </c>
       <c r="B19" s="1">
-        <v>18.303590</v>
+        <v>18.30359</v>
       </c>
       <c r="C19" s="1">
-        <v>898.141000</v>
+        <v>898.14099999999996</v>
       </c>
       <c r="D19" s="1">
-        <v>-202.971000</v>
+        <v>-202.971</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>65903.715530</v>
+        <v>65903.715530000001</v>
       </c>
       <c r="G19" s="1">
-        <v>18.306588</v>
+        <v>18.306588000000001</v>
       </c>
       <c r="H19" s="1">
-        <v>916.716000</v>
+        <v>916.71600000000001</v>
       </c>
       <c r="I19" s="1">
-        <v>-172.026000</v>
+        <v>-172.02600000000001</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>65914.131553</v>
+        <v>65914.131552999999</v>
       </c>
       <c r="L19" s="1">
-        <v>18.309481</v>
+        <v>18.309481000000002</v>
       </c>
       <c r="M19" s="1">
-        <v>941.119000</v>
+        <v>941.11900000000003</v>
       </c>
       <c r="N19" s="1">
-        <v>-122.006000</v>
+        <v>-122.006</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>65924.762767</v>
+        <v>65924.762766999993</v>
       </c>
       <c r="Q19" s="1">
         <v>18.312434</v>
       </c>
       <c r="R19" s="1">
-        <v>948.031000</v>
+        <v>948.03099999999995</v>
       </c>
       <c r="S19" s="1">
-        <v>-105.358000</v>
+        <v>-105.358</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>65935.180737</v>
+        <v>65935.180737000002</v>
       </c>
       <c r="V19" s="1">
-        <v>18.315328</v>
+        <v>18.315328000000001</v>
       </c>
       <c r="W19" s="1">
-        <v>954.941000</v>
+        <v>954.94100000000003</v>
       </c>
       <c r="X19" s="1">
-        <v>-89.982000</v>
+        <v>-89.981999999999999</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>65945.701908</v>
+        <v>65945.701908000003</v>
       </c>
       <c r="AA19" s="1">
         <v>18.318251</v>
       </c>
       <c r="AB19" s="1">
-        <v>962.158000</v>
+        <v>962.15800000000002</v>
       </c>
       <c r="AC19" s="1">
-        <v>-77.753400</v>
+        <v>-77.753399999999999</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>65956.179860</v>
+        <v>65956.179860000004</v>
       </c>
       <c r="AF19" s="1">
         <v>18.321161</v>
       </c>
       <c r="AG19" s="1">
-        <v>966.914000</v>
+        <v>966.91399999999999</v>
       </c>
       <c r="AH19" s="1">
-        <v>-75.389600</v>
+        <v>-75.389600000000002</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>65966.724808</v>
+        <v>65966.724807999999</v>
       </c>
       <c r="AK19" s="1">
-        <v>18.324090</v>
+        <v>18.324090000000002</v>
       </c>
       <c r="AL19" s="1">
-        <v>974.098000</v>
+        <v>974.09799999999996</v>
       </c>
       <c r="AM19" s="1">
-        <v>-79.774100</v>
+        <v>-79.774100000000004</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>65976.888329</v>
+        <v>65976.888328999994</v>
       </c>
       <c r="AP19" s="1">
-        <v>18.326913</v>
+        <v>18.326913000000001</v>
       </c>
       <c r="AQ19" s="1">
-        <v>982.129000</v>
+        <v>982.12900000000002</v>
       </c>
       <c r="AR19" s="1">
-        <v>-91.167100</v>
+        <v>-91.167100000000005</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>65988.039387</v>
+        <v>65988.039386999997</v>
       </c>
       <c r="AU19" s="1">
-        <v>18.330011</v>
+        <v>18.330010999999999</v>
       </c>
       <c r="AV19" s="1">
-        <v>991.909000</v>
+        <v>991.90899999999999</v>
       </c>
       <c r="AW19" s="1">
-        <v>-108.746000</v>
+        <v>-108.746</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>65998.625997</v>
+        <v>65998.625996999996</v>
       </c>
       <c r="AZ19" s="1">
-        <v>18.332952</v>
+        <v>18.332951999999999</v>
       </c>
       <c r="BA19" s="1">
-        <v>1000.160000</v>
+        <v>1000.16</v>
       </c>
       <c r="BB19" s="1">
-        <v>-124.304000</v>
+        <v>-124.304</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>66009.649086</v>
+        <v>66009.649086000005</v>
       </c>
       <c r="BE19" s="1">
-        <v>18.336014</v>
+        <v>18.336013999999999</v>
       </c>
       <c r="BF19" s="1">
-        <v>1038.990000</v>
+        <v>1038.99</v>
       </c>
       <c r="BG19" s="1">
-        <v>-196.047000</v>
+        <v>-196.047</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>66020.664735</v>
+        <v>66020.664734999998</v>
       </c>
       <c r="BJ19" s="1">
         <v>18.339074</v>
       </c>
       <c r="BK19" s="1">
-        <v>1106.500000</v>
+        <v>1106.5</v>
       </c>
       <c r="BL19" s="1">
-        <v>-311.894000</v>
+        <v>-311.89400000000001</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>66031.125858</v>
+        <v>66031.125857999999</v>
       </c>
       <c r="BO19" s="1">
-        <v>18.341979</v>
+        <v>18.341978999999998</v>
       </c>
       <c r="BP19" s="1">
-        <v>1216.130000</v>
+        <v>1216.1300000000001</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-492.613000</v>
+        <v>-492.613</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>66042.474818</v>
+        <v>66042.474818000002</v>
       </c>
       <c r="BT19" s="1">
         <v>18.345132</v>
       </c>
       <c r="BU19" s="1">
-        <v>1338.410000</v>
+        <v>1338.41</v>
       </c>
       <c r="BV19" s="1">
-        <v>-689.244000</v>
+        <v>-689.24400000000003</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>66053.522708</v>
+        <v>66053.522708000004</v>
       </c>
       <c r="BY19" s="1">
         <v>18.348201</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1474.630000</v>
+        <v>1474.63</v>
       </c>
       <c r="CA19" s="1">
-        <v>-897.791000</v>
+        <v>-897.79100000000005</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>66066.050170</v>
+        <v>66066.050170000002</v>
       </c>
       <c r="CD19" s="1">
-        <v>18.351681</v>
+        <v>18.351680999999999</v>
       </c>
       <c r="CE19" s="1">
-        <v>1827.730000</v>
+        <v>1827.73</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1390.030000</v>
+        <v>-1390.03</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>65893.264824</v>
+        <v>65893.264823999998</v>
       </c>
       <c r="B20" s="1">
-        <v>18.303685</v>
+        <v>18.303685000000002</v>
       </c>
       <c r="C20" s="1">
-        <v>898.021000</v>
+        <v>898.02099999999996</v>
       </c>
       <c r="D20" s="1">
-        <v>-202.681000</v>
+        <v>-202.68100000000001</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>65904.132205</v>
+        <v>65904.132205000002</v>
       </c>
       <c r="G20" s="1">
-        <v>18.306703</v>
+        <v>18.306702999999999</v>
       </c>
       <c r="H20" s="1">
-        <v>916.467000</v>
+        <v>916.46699999999998</v>
       </c>
       <c r="I20" s="1">
-        <v>-171.751000</v>
+        <v>-171.751</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>65914.568988</v>
+        <v>65914.568987999999</v>
       </c>
       <c r="L20" s="1">
-        <v>18.309602</v>
+        <v>18.309602000000002</v>
       </c>
       <c r="M20" s="1">
-        <v>940.873000</v>
+        <v>940.87300000000005</v>
       </c>
       <c r="N20" s="1">
-        <v>-121.940000</v>
+        <v>-121.94</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>65925.043006</v>
+        <v>65925.043006000007</v>
       </c>
       <c r="Q20" s="1">
-        <v>18.312512</v>
+        <v>18.312512000000002</v>
       </c>
       <c r="R20" s="1">
-        <v>948.023000</v>
+        <v>948.02300000000002</v>
       </c>
       <c r="S20" s="1">
-        <v>-105.342000</v>
+        <v>-105.342</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>65935.527439</v>
+        <v>65935.527438999998</v>
       </c>
       <c r="V20" s="1">
         <v>18.315424</v>
       </c>
       <c r="W20" s="1">
-        <v>954.864000</v>
+        <v>954.86400000000003</v>
       </c>
       <c r="X20" s="1">
-        <v>-89.852300</v>
+        <v>-89.8523</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>65946.049073</v>
+        <v>65946.049073000002</v>
       </c>
       <c r="AA20" s="1">
-        <v>18.318347</v>
+        <v>18.318346999999999</v>
       </c>
       <c r="AB20" s="1">
-        <v>962.185000</v>
+        <v>962.18499999999995</v>
       </c>
       <c r="AC20" s="1">
-        <v>-77.798600</v>
+        <v>-77.798599999999993</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>65956.523091</v>
+        <v>65956.523090999995</v>
       </c>
       <c r="AF20" s="1">
-        <v>18.321256</v>
+        <v>18.321256000000002</v>
       </c>
       <c r="AG20" s="1">
-        <v>966.922000</v>
+        <v>966.92200000000003</v>
       </c>
       <c r="AH20" s="1">
-        <v>-75.339400</v>
+        <v>-75.339399999999998</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>65967.328934</v>
+        <v>65967.328934000005</v>
       </c>
       <c r="AK20" s="1">
         <v>18.324258</v>
       </c>
       <c r="AL20" s="1">
-        <v>974.088000</v>
+        <v>974.08799999999997</v>
       </c>
       <c r="AM20" s="1">
-        <v>-79.795100</v>
+        <v>-79.795100000000005</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>65977.615992</v>
+        <v>65977.615992000006</v>
       </c>
       <c r="AP20" s="1">
         <v>18.327116</v>
       </c>
       <c r="AQ20" s="1">
-        <v>982.126000</v>
+        <v>982.12599999999998</v>
       </c>
       <c r="AR20" s="1">
-        <v>-91.180100</v>
+        <v>-91.180099999999996</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>65988.404937</v>
+        <v>65988.404936999999</v>
       </c>
       <c r="AU20" s="1">
         <v>18.330112</v>
       </c>
       <c r="AV20" s="1">
-        <v>991.915000</v>
+        <v>991.91499999999996</v>
       </c>
       <c r="AW20" s="1">
-        <v>-108.743000</v>
+        <v>-108.74299999999999</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>65998.985595</v>
+        <v>65998.985595000006</v>
       </c>
       <c r="AZ20" s="1">
-        <v>18.333052</v>
+        <v>18.333051999999999</v>
       </c>
       <c r="BA20" s="1">
-        <v>1000.160000</v>
+        <v>1000.16</v>
       </c>
       <c r="BB20" s="1">
-        <v>-124.325000</v>
+        <v>-124.325</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>66010.012686</v>
+        <v>66010.012686000002</v>
       </c>
       <c r="BE20" s="1">
-        <v>18.336115</v>
+        <v>18.336114999999999</v>
       </c>
       <c r="BF20" s="1">
-        <v>1039.000000</v>
+        <v>1039</v>
       </c>
       <c r="BG20" s="1">
-        <v>-196.063000</v>
+        <v>-196.06299999999999</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>66021.355662</v>
+        <v>66021.355662000002</v>
       </c>
       <c r="BJ20" s="1">
-        <v>18.339265</v>
+        <v>18.339265000000001</v>
       </c>
       <c r="BK20" s="1">
-        <v>1106.480000</v>
+        <v>1106.48</v>
       </c>
       <c r="BL20" s="1">
-        <v>-311.891000</v>
+        <v>-311.89100000000002</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>66031.835663</v>
+        <v>66031.835663000005</v>
       </c>
       <c r="BO20" s="1">
         <v>18.342177</v>
       </c>
       <c r="BP20" s="1">
-        <v>1216.110000</v>
+        <v>1216.1099999999999</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-492.673000</v>
+        <v>-492.673</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>66042.590386</v>
+        <v>66042.590385999996</v>
       </c>
       <c r="BT20" s="1">
         <v>18.345164</v>
       </c>
       <c r="BU20" s="1">
-        <v>1338.340000</v>
+        <v>1338.34</v>
       </c>
       <c r="BV20" s="1">
-        <v>-689.293000</v>
+        <v>-689.29300000000001</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
         <v>66053.946291</v>
       </c>
       <c r="BY20" s="1">
-        <v>18.348318</v>
+        <v>18.348317999999999</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1474.570000</v>
+        <v>1474.57</v>
       </c>
       <c r="CA20" s="1">
-        <v>-897.809000</v>
+        <v>-897.80899999999997</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>66066.568019</v>
+        <v>66066.568018999998</v>
       </c>
       <c r="CD20" s="1">
-        <v>18.351824</v>
+        <v>18.351824000000001</v>
       </c>
       <c r="CE20" s="1">
-        <v>1827.830000</v>
+        <v>1827.83</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1390.080000</v>
+        <v>-1390.08</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>65893.688935</v>
+        <v>65893.688934999998</v>
       </c>
       <c r="B21" s="1">
-        <v>18.303802</v>
+        <v>18.303802000000001</v>
       </c>
       <c r="C21" s="1">
-        <v>898.209000</v>
+        <v>898.20899999999995</v>
       </c>
       <c r="D21" s="1">
-        <v>-202.831000</v>
+        <v>-202.83099999999999</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>65904.412941</v>
+        <v>65904.412941000002</v>
       </c>
       <c r="G21" s="1">
-        <v>18.306781</v>
+        <v>18.306781000000001</v>
       </c>
       <c r="H21" s="1">
-        <v>916.429000</v>
+        <v>916.42899999999997</v>
       </c>
       <c r="I21" s="1">
-        <v>-171.603000</v>
+        <v>-171.60300000000001</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>65914.849723</v>
+        <v>65914.849723000007</v>
       </c>
       <c r="L21" s="1">
-        <v>18.309680</v>
+        <v>18.30968</v>
       </c>
       <c r="M21" s="1">
-        <v>940.950000</v>
+        <v>940.95</v>
       </c>
       <c r="N21" s="1">
-        <v>-122.064000</v>
+        <v>-122.06399999999999</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>65925.392190</v>
+        <v>65925.392189999999</v>
       </c>
       <c r="Q21" s="1">
-        <v>18.312609</v>
+        <v>18.312608999999998</v>
       </c>
       <c r="R21" s="1">
-        <v>948.016000</v>
+        <v>948.01599999999996</v>
       </c>
       <c r="S21" s="1">
-        <v>-105.335000</v>
+        <v>-105.33499999999999</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>65935.871172</v>
+        <v>65935.871171999999</v>
       </c>
       <c r="V21" s="1">
-        <v>18.315520</v>
+        <v>18.315519999999999</v>
       </c>
       <c r="W21" s="1">
-        <v>954.864000</v>
+        <v>954.86400000000003</v>
       </c>
       <c r="X21" s="1">
-        <v>-89.899700</v>
+        <v>-89.899699999999996</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>65946.396801</v>
+        <v>65946.396800999995</v>
       </c>
       <c r="AA21" s="1">
         <v>18.318444</v>
       </c>
       <c r="AB21" s="1">
-        <v>962.093000</v>
+        <v>962.09299999999996</v>
       </c>
       <c r="AC21" s="1">
-        <v>-77.805800</v>
+        <v>-77.805800000000005</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>65957.211079</v>
+        <v>65957.211079000001</v>
       </c>
       <c r="AF21" s="1">
         <v>18.321448</v>
       </c>
       <c r="AG21" s="1">
-        <v>966.784000</v>
+        <v>966.78399999999999</v>
       </c>
       <c r="AH21" s="1">
-        <v>-75.391200</v>
+        <v>-75.391199999999998</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>65967.453925</v>
+        <v>65967.453924999994</v>
       </c>
       <c r="AK21" s="1">
-        <v>18.324293</v>
+        <v>18.324293000000001</v>
       </c>
       <c r="AL21" s="1">
-        <v>974.046000</v>
+        <v>974.04600000000005</v>
       </c>
       <c r="AM21" s="1">
-        <v>-79.781200</v>
+        <v>-79.781199999999998</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>65977.992423</v>
+        <v>65977.992423000003</v>
       </c>
       <c r="AP21" s="1">
-        <v>18.327220</v>
+        <v>18.327220000000001</v>
       </c>
       <c r="AQ21" s="1">
-        <v>982.101000</v>
+        <v>982.101</v>
       </c>
       <c r="AR21" s="1">
-        <v>-91.183800</v>
+        <v>-91.183800000000005</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>65988.769517</v>
+        <v>65988.769516999993</v>
       </c>
       <c r="AU21" s="1">
-        <v>18.330214</v>
+        <v>18.330214000000002</v>
       </c>
       <c r="AV21" s="1">
-        <v>991.897000</v>
+        <v>991.89700000000005</v>
       </c>
       <c r="AW21" s="1">
-        <v>-108.748000</v>
+        <v>-108.748</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>65999.345195</v>
+        <v>65999.345195000002</v>
       </c>
       <c r="AZ21" s="1">
-        <v>18.333151</v>
+        <v>18.333151000000001</v>
       </c>
       <c r="BA21" s="1">
-        <v>1000.160000</v>
+        <v>1000.16</v>
       </c>
       <c r="BB21" s="1">
-        <v>-124.319000</v>
+        <v>-124.319</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>66010.677323</v>
+        <v>66010.677322999996</v>
       </c>
       <c r="BE21" s="1">
         <v>18.336299</v>
       </c>
       <c r="BF21" s="1">
-        <v>1038.980000</v>
+        <v>1038.98</v>
       </c>
       <c r="BG21" s="1">
-        <v>-196.076000</v>
+        <v>-196.07599999999999</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>66021.793630</v>
+        <v>66021.79363</v>
       </c>
       <c r="BJ21" s="1">
-        <v>18.339387</v>
+        <v>18.339386999999999</v>
       </c>
       <c r="BK21" s="1">
-        <v>1106.490000</v>
+        <v>1106.49</v>
       </c>
       <c r="BL21" s="1">
-        <v>-311.902000</v>
+        <v>-311.90199999999999</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>66031.961120</v>
+        <v>66031.961120000007</v>
       </c>
       <c r="BO21" s="1">
-        <v>18.342211</v>
+        <v>18.342210999999999</v>
       </c>
       <c r="BP21" s="1">
-        <v>1216.140000</v>
+        <v>1216.1400000000001</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-492.642000</v>
+        <v>-492.642</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>66043.032323</v>
+        <v>66043.032323000007</v>
       </c>
       <c r="BT21" s="1">
-        <v>18.345287</v>
+        <v>18.345286999999999</v>
       </c>
       <c r="BU21" s="1">
-        <v>1338.300000</v>
+        <v>1338.3</v>
       </c>
       <c r="BV21" s="1">
-        <v>-689.272000</v>
+        <v>-689.27200000000005</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>66054.363963</v>
+        <v>66054.363962999996</v>
       </c>
       <c r="BY21" s="1">
-        <v>18.348434</v>
+        <v>18.348434000000001</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1474.570000</v>
+        <v>1474.57</v>
       </c>
       <c r="CA21" s="1">
-        <v>-897.753000</v>
+        <v>-897.75300000000004</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>66067.121554</v>
+        <v>66067.121553999998</v>
       </c>
       <c r="CD21" s="1">
-        <v>18.351978</v>
+        <v>18.351977999999999</v>
       </c>
       <c r="CE21" s="1">
-        <v>1828.040000</v>
+        <v>1828.04</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1390.800000</v>
+        <v>-1390.8</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>65893.962198</v>
+        <v>65893.962197999994</v>
       </c>
       <c r="B22" s="1">
-        <v>18.303878</v>
+        <v>18.303878000000001</v>
       </c>
       <c r="C22" s="1">
-        <v>898.073000</v>
+        <v>898.07299999999998</v>
       </c>
       <c r="D22" s="1">
-        <v>-202.637000</v>
+        <v>-202.637</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>65904.757128</v>
+        <v>65904.757127999997</v>
       </c>
       <c r="G22" s="1">
         <v>18.306877</v>
       </c>
       <c r="H22" s="1">
-        <v>916.563000</v>
+        <v>916.56299999999999</v>
       </c>
       <c r="I22" s="1">
-        <v>-171.972000</v>
+        <v>-171.97200000000001</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>65915.189978</v>
+        <v>65915.189977999995</v>
       </c>
       <c r="L22" s="1">
-        <v>18.309775</v>
+        <v>18.309774999999998</v>
       </c>
       <c r="M22" s="1">
-        <v>940.962000</v>
+        <v>940.96199999999999</v>
       </c>
       <c r="N22" s="1">
-        <v>-122.001000</v>
+        <v>-122.001</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>65925.741868</v>
+        <v>65925.741867999997</v>
       </c>
       <c r="Q22" s="1">
-        <v>18.312706</v>
+        <v>18.312705999999999</v>
       </c>
       <c r="R22" s="1">
-        <v>948.066000</v>
+        <v>948.06600000000003</v>
       </c>
       <c r="S22" s="1">
-        <v>-105.369000</v>
+        <v>-105.369</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>65936.558654</v>
+        <v>65936.558653999993</v>
       </c>
       <c r="V22" s="1">
         <v>18.315711</v>
       </c>
       <c r="W22" s="1">
-        <v>954.825000</v>
+        <v>954.82500000000005</v>
       </c>
       <c r="X22" s="1">
-        <v>-89.893700</v>
+        <v>-89.893699999999995</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>65947.094641</v>
+        <v>65947.094641000003</v>
       </c>
       <c r="AA22" s="1">
-        <v>18.318637</v>
+        <v>18.318636999999999</v>
       </c>
       <c r="AB22" s="1">
-        <v>962.217000</v>
+        <v>962.21699999999998</v>
       </c>
       <c r="AC22" s="1">
-        <v>-77.855500</v>
+        <v>-77.855500000000006</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>65957.554771</v>
+        <v>65957.554770999996</v>
       </c>
       <c r="AF22" s="1">
-        <v>18.321543</v>
+        <v>18.321542999999998</v>
       </c>
       <c r="AG22" s="1">
-        <v>966.860000</v>
+        <v>966.86</v>
       </c>
       <c r="AH22" s="1">
-        <v>-75.370400</v>
+        <v>-75.370400000000004</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>65967.770868</v>
+        <v>65967.770868000007</v>
       </c>
       <c r="AK22" s="1">
-        <v>18.324381</v>
+        <v>18.324380999999999</v>
       </c>
       <c r="AL22" s="1">
-        <v>974.078000</v>
+        <v>974.07799999999997</v>
       </c>
       <c r="AM22" s="1">
-        <v>-79.792600</v>
+        <v>-79.792599999999993</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>65978.373351</v>
+        <v>65978.373351000002</v>
       </c>
       <c r="AP22" s="1">
-        <v>18.327326</v>
+        <v>18.327325999999999</v>
       </c>
       <c r="AQ22" s="1">
-        <v>982.097000</v>
+        <v>982.09699999999998</v>
       </c>
       <c r="AR22" s="1">
-        <v>-91.191400</v>
+        <v>-91.191400000000002</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>65989.446040</v>
+        <v>65989.446039999995</v>
       </c>
       <c r="AU22" s="1">
-        <v>18.330402</v>
+        <v>18.330401999999999</v>
       </c>
       <c r="AV22" s="1">
-        <v>991.918000</v>
+        <v>991.91800000000001</v>
       </c>
       <c r="AW22" s="1">
-        <v>-108.739000</v>
+        <v>-108.739</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>66000.013803</v>
+        <v>66000.013802999994</v>
       </c>
       <c r="AZ22" s="1">
         <v>18.333337</v>
       </c>
       <c r="BA22" s="1">
-        <v>1000.160000</v>
+        <v>1000.16</v>
       </c>
       <c r="BB22" s="1">
-        <v>-124.303000</v>
+        <v>-124.303</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>66011.132124</v>
+        <v>66011.132123999996</v>
       </c>
       <c r="BE22" s="1">
-        <v>18.336426</v>
+        <v>18.336425999999999</v>
       </c>
       <c r="BF22" s="1">
-        <v>1038.990000</v>
+        <v>1038.99</v>
       </c>
       <c r="BG22" s="1">
-        <v>-196.055000</v>
+        <v>-196.05500000000001</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>66022.168142</v>
+        <v>66022.168141999995</v>
       </c>
       <c r="BJ22" s="1">
-        <v>18.339491</v>
+        <v>18.339490999999999</v>
       </c>
       <c r="BK22" s="1">
-        <v>1106.510000</v>
+        <v>1106.51</v>
       </c>
       <c r="BL22" s="1">
-        <v>-311.883000</v>
+        <v>-311.88299999999998</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>66032.367841</v>
+        <v>66032.367840999999</v>
       </c>
       <c r="BO22" s="1">
-        <v>18.342324</v>
+        <v>18.342324000000001</v>
       </c>
       <c r="BP22" s="1">
-        <v>1216.170000</v>
+        <v>1216.17</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-492.677000</v>
+        <v>-492.67700000000002</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>66043.443506</v>
+        <v>66043.443505999996</v>
       </c>
       <c r="BT22" s="1">
-        <v>18.345401</v>
+        <v>18.345400999999999</v>
       </c>
       <c r="BU22" s="1">
-        <v>1338.290000</v>
+        <v>1338.29</v>
       </c>
       <c r="BV22" s="1">
-        <v>-689.234000</v>
+        <v>-689.23400000000004</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>66054.800910</v>
+        <v>66054.800910000005</v>
       </c>
       <c r="BY22" s="1">
-        <v>18.348556</v>
+        <v>18.348555999999999</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1474.690000</v>
+        <v>1474.69</v>
       </c>
       <c r="CA22" s="1">
-        <v>-897.845000</v>
+        <v>-897.84500000000003</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>66067.652738</v>
+        <v>66067.652738000004</v>
       </c>
       <c r="CD22" s="1">
-        <v>18.352126</v>
+        <v>18.352125999999998</v>
       </c>
       <c r="CE22" s="1">
-        <v>1827.410000</v>
+        <v>1827.41</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1389.840000</v>
+        <v>-1389.84</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>65894.305960</v>
+        <v>65894.305959999998</v>
       </c>
       <c r="B23" s="1">
         <v>18.303974</v>
       </c>
       <c r="C23" s="1">
-        <v>898.191000</v>
+        <v>898.19100000000003</v>
       </c>
       <c r="D23" s="1">
-        <v>-202.751000</v>
+        <v>-202.751</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>65905.101353</v>
+        <v>65905.101353000005</v>
       </c>
       <c r="G23" s="1">
-        <v>18.306973</v>
+        <v>18.306972999999999</v>
       </c>
       <c r="H23" s="1">
-        <v>916.733000</v>
+        <v>916.73299999999995</v>
       </c>
       <c r="I23" s="1">
-        <v>-171.523000</v>
+        <v>-171.523</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>65915.570937</v>
+        <v>65915.570936999997</v>
       </c>
       <c r="L23" s="1">
-        <v>18.309881</v>
+        <v>18.309881000000001</v>
       </c>
       <c r="M23" s="1">
-        <v>940.920000</v>
+        <v>940.92</v>
       </c>
       <c r="N23" s="1">
-        <v>-122.057000</v>
+        <v>-122.057</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>65926.435807</v>
+        <v>65926.435807000002</v>
       </c>
       <c r="Q23" s="1">
-        <v>18.312899</v>
+        <v>18.312899000000002</v>
       </c>
       <c r="R23" s="1">
-        <v>948.021000</v>
+        <v>948.02099999999996</v>
       </c>
       <c r="S23" s="1">
-        <v>-105.433000</v>
+        <v>-105.43300000000001</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>65936.903838</v>
+        <v>65936.903837999998</v>
       </c>
       <c r="V23" s="1">
         <v>18.315807</v>
       </c>
       <c r="W23" s="1">
-        <v>954.808000</v>
+        <v>954.80799999999999</v>
       </c>
       <c r="X23" s="1">
-        <v>-89.968400</v>
+        <v>-89.968400000000003</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>65947.442864</v>
+        <v>65947.442863999997</v>
       </c>
       <c r="AA23" s="1">
-        <v>18.318734</v>
+        <v>18.318733999999999</v>
       </c>
       <c r="AB23" s="1">
-        <v>962.215000</v>
+        <v>962.21500000000003</v>
       </c>
       <c r="AC23" s="1">
-        <v>-77.807800</v>
+        <v>-77.8078</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
         <v>65957.896515</v>
@@ -5968,936 +6384,937 @@
         <v>18.321638</v>
       </c>
       <c r="AG23" s="1">
-        <v>966.984000</v>
+        <v>966.98400000000004</v>
       </c>
       <c r="AH23" s="1">
-        <v>-75.419700</v>
+        <v>-75.419700000000006</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>65968.424595</v>
+        <v>65968.424595000004</v>
       </c>
       <c r="AK23" s="1">
         <v>18.324562</v>
       </c>
       <c r="AL23" s="1">
-        <v>974.090000</v>
+        <v>974.09</v>
       </c>
       <c r="AM23" s="1">
-        <v>-79.766900</v>
+        <v>-79.766900000000007</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>65979.038520</v>
+        <v>65979.038520000002</v>
       </c>
       <c r="AP23" s="1">
-        <v>18.327511</v>
+        <v>18.327511000000001</v>
       </c>
       <c r="AQ23" s="1">
-        <v>982.116000</v>
+        <v>982.11599999999999</v>
       </c>
       <c r="AR23" s="1">
-        <v>-91.158000</v>
+        <v>-91.158000000000001</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
         <v>65989.864663</v>
       </c>
       <c r="AU23" s="1">
-        <v>18.330518</v>
+        <v>18.330518000000001</v>
       </c>
       <c r="AV23" s="1">
-        <v>991.914000</v>
+        <v>991.91399999999999</v>
       </c>
       <c r="AW23" s="1">
-        <v>-108.743000</v>
+        <v>-108.74299999999999</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>66000.452276</v>
+        <v>66000.452275999996</v>
       </c>
       <c r="AZ23" s="1">
-        <v>18.333459</v>
+        <v>18.333459000000001</v>
       </c>
       <c r="BA23" s="1">
-        <v>1000.160000</v>
+        <v>1000.16</v>
       </c>
       <c r="BB23" s="1">
-        <v>-124.320000</v>
+        <v>-124.32</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>66011.492218</v>
+        <v>66011.492217999999</v>
       </c>
       <c r="BE23" s="1">
-        <v>18.336526</v>
+        <v>18.336525999999999</v>
       </c>
       <c r="BF23" s="1">
-        <v>1039.000000</v>
+        <v>1039</v>
       </c>
       <c r="BG23" s="1">
-        <v>-196.036000</v>
+        <v>-196.036</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>66022.545100</v>
+        <v>66022.545100000003</v>
       </c>
       <c r="BJ23" s="1">
         <v>18.339596</v>
       </c>
       <c r="BK23" s="1">
-        <v>1106.480000</v>
+        <v>1106.48</v>
       </c>
       <c r="BL23" s="1">
-        <v>-311.884000</v>
+        <v>-311.88400000000001</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>66032.767120</v>
+        <v>66032.767120000004</v>
       </c>
       <c r="BO23" s="1">
-        <v>18.342435</v>
+        <v>18.342434999999998</v>
       </c>
       <c r="BP23" s="1">
-        <v>1216.110000</v>
+        <v>1216.1099999999999</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-492.636000</v>
+        <v>-492.63600000000002</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>66043.875552</v>
+        <v>66043.875551999998</v>
       </c>
       <c r="BT23" s="1">
-        <v>18.345521</v>
+        <v>18.345521000000002</v>
       </c>
       <c r="BU23" s="1">
-        <v>1338.280000</v>
+        <v>1338.28</v>
       </c>
       <c r="BV23" s="1">
-        <v>-689.330000</v>
+        <v>-689.33</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>66055.233409</v>
+        <v>66055.233408999993</v>
       </c>
       <c r="BY23" s="1">
-        <v>18.348676</v>
+        <v>18.348676000000001</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1474.580000</v>
+        <v>1474.58</v>
       </c>
       <c r="CA23" s="1">
-        <v>-897.843000</v>
+        <v>-897.84299999999996</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>66068.168617</v>
+        <v>66068.168617000003</v>
       </c>
       <c r="CD23" s="1">
         <v>18.352269</v>
       </c>
       <c r="CE23" s="1">
-        <v>1826.030000</v>
+        <v>1826.03</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1390.540000</v>
+        <v>-1390.54</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>65894.646709</v>
+        <v>65894.646708999993</v>
       </c>
       <c r="B24" s="1">
-        <v>18.304069</v>
+        <v>18.304068999999998</v>
       </c>
       <c r="C24" s="1">
-        <v>898.097000</v>
+        <v>898.09699999999998</v>
       </c>
       <c r="D24" s="1">
-        <v>-202.678000</v>
+        <v>-202.678</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>65905.789304</v>
+        <v>65905.789304000005</v>
       </c>
       <c r="G24" s="1">
         <v>18.307164</v>
       </c>
       <c r="H24" s="1">
-        <v>917.057000</v>
+        <v>917.05700000000002</v>
       </c>
       <c r="I24" s="1">
-        <v>-171.634000</v>
+        <v>-171.63399999999999</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>65916.234058</v>
+        <v>65916.234058000002</v>
       </c>
       <c r="L24" s="1">
-        <v>18.310065</v>
+        <v>18.310065000000002</v>
       </c>
       <c r="M24" s="1">
-        <v>940.912000</v>
+        <v>940.91200000000003</v>
       </c>
       <c r="N24" s="1">
-        <v>-122.144000</v>
+        <v>-122.14400000000001</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>65926.785451</v>
+        <v>65926.785451000003</v>
       </c>
       <c r="Q24" s="1">
-        <v>18.312996</v>
+        <v>18.312995999999998</v>
       </c>
       <c r="R24" s="1">
-        <v>948.004000</v>
+        <v>948.00400000000002</v>
       </c>
       <c r="S24" s="1">
-        <v>-105.407000</v>
+        <v>-105.407</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>65937.244093</v>
+        <v>65937.244093000001</v>
       </c>
       <c r="V24" s="1">
         <v>18.315901</v>
       </c>
       <c r="W24" s="1">
-        <v>954.802000</v>
+        <v>954.80200000000002</v>
       </c>
       <c r="X24" s="1">
-        <v>-89.800900</v>
+        <v>-89.800899999999999</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>65947.790032</v>
+        <v>65947.790032000004</v>
       </c>
       <c r="AA24" s="1">
-        <v>18.318831</v>
+        <v>18.318830999999999</v>
       </c>
       <c r="AB24" s="1">
-        <v>962.082000</v>
+        <v>962.08199999999999</v>
       </c>
       <c r="AC24" s="1">
-        <v>-77.866300</v>
+        <v>-77.866299999999995</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>65958.555201</v>
+        <v>65958.555200999996</v>
       </c>
       <c r="AF24" s="1">
         <v>18.321821</v>
       </c>
       <c r="AG24" s="1">
-        <v>966.838000</v>
+        <v>966.83799999999997</v>
       </c>
       <c r="AH24" s="1">
-        <v>-75.315700</v>
+        <v>-75.315700000000007</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>65968.815444</v>
+        <v>65968.815444000007</v>
       </c>
       <c r="AK24" s="1">
-        <v>18.324671</v>
+        <v>18.324670999999999</v>
       </c>
       <c r="AL24" s="1">
-        <v>974.086000</v>
+        <v>974.08600000000001</v>
       </c>
       <c r="AM24" s="1">
-        <v>-79.774900</v>
+        <v>-79.774900000000002</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>65979.455654</v>
+        <v>65979.455654000005</v>
       </c>
       <c r="AP24" s="1">
         <v>18.327627</v>
       </c>
       <c r="AQ24" s="1">
-        <v>982.098000</v>
+        <v>982.09799999999996</v>
       </c>
       <c r="AR24" s="1">
-        <v>-91.161400</v>
+        <v>-91.1614</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>65990.230216</v>
+        <v>65990.230215999996</v>
       </c>
       <c r="AU24" s="1">
-        <v>18.330620</v>
+        <v>18.33062</v>
       </c>
       <c r="AV24" s="1">
-        <v>991.906000</v>
+        <v>991.90599999999995</v>
       </c>
       <c r="AW24" s="1">
-        <v>-108.750000</v>
+        <v>-108.75</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>66000.820794</v>
+        <v>66000.820793999999</v>
       </c>
       <c r="AZ24" s="1">
         <v>18.333561</v>
       </c>
       <c r="BA24" s="1">
-        <v>1000.160000</v>
+        <v>1000.16</v>
       </c>
       <c r="BB24" s="1">
-        <v>-124.311000</v>
+        <v>-124.31100000000001</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>66011.851324</v>
+        <v>66011.851324000003</v>
       </c>
       <c r="BE24" s="1">
-        <v>18.336625</v>
+        <v>18.336625000000002</v>
       </c>
       <c r="BF24" s="1">
-        <v>1038.990000</v>
+        <v>1038.99</v>
       </c>
       <c r="BG24" s="1">
-        <v>-196.061000</v>
+        <v>-196.06100000000001</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>66022.964685</v>
+        <v>66022.964684999999</v>
       </c>
       <c r="BJ24" s="1">
-        <v>18.339712</v>
+        <v>18.339711999999999</v>
       </c>
       <c r="BK24" s="1">
-        <v>1106.470000</v>
+        <v>1106.47</v>
       </c>
       <c r="BL24" s="1">
-        <v>-311.881000</v>
+        <v>-311.88099999999997</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>66033.192686</v>
+        <v>66033.192685999995</v>
       </c>
       <c r="BO24" s="1">
         <v>18.342554</v>
       </c>
       <c r="BP24" s="1">
-        <v>1216.170000</v>
+        <v>1216.17</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-492.684000</v>
+        <v>-492.68400000000003</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>66044.302576</v>
+        <v>66044.302576000002</v>
       </c>
       <c r="BT24" s="1">
-        <v>18.345640</v>
+        <v>18.34564</v>
       </c>
       <c r="BU24" s="1">
-        <v>1338.320000</v>
+        <v>1338.32</v>
       </c>
       <c r="BV24" s="1">
-        <v>-689.311000</v>
+        <v>-689.31100000000004</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>66055.654048</v>
+        <v>66055.654047999997</v>
       </c>
       <c r="BY24" s="1">
-        <v>18.348793</v>
+        <v>18.348793000000001</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1474.620000</v>
+        <v>1474.62</v>
       </c>
       <c r="CA24" s="1">
-        <v>-897.894000</v>
+        <v>-897.89400000000001</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>66068.719632</v>
+        <v>66068.719631999993</v>
       </c>
       <c r="CD24" s="1">
-        <v>18.352422</v>
+        <v>18.352422000000001</v>
       </c>
       <c r="CE24" s="1">
-        <v>1826.980000</v>
+        <v>1826.98</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1391.740000</v>
+        <v>-1391.74</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>65895.330202</v>
+        <v>65895.330201999997</v>
       </c>
       <c r="B25" s="1">
-        <v>18.304258</v>
+        <v>18.304258000000001</v>
       </c>
       <c r="C25" s="1">
-        <v>898.258000</v>
+        <v>898.25800000000004</v>
       </c>
       <c r="D25" s="1">
-        <v>-202.799000</v>
+        <v>-202.79900000000001</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>65906.132534</v>
+        <v>65906.132534000004</v>
       </c>
       <c r="G25" s="1">
-        <v>18.307259</v>
+        <v>18.307258999999998</v>
       </c>
       <c r="H25" s="1">
-        <v>916.792000</v>
+        <v>916.79200000000003</v>
       </c>
       <c r="I25" s="1">
-        <v>-171.608000</v>
+        <v>-171.608</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>65916.584763</v>
+        <v>65916.584763000006</v>
       </c>
       <c r="L25" s="1">
-        <v>18.310162</v>
+        <v>18.310161999999998</v>
       </c>
       <c r="M25" s="1">
-        <v>940.855000</v>
+        <v>940.85500000000002</v>
       </c>
       <c r="N25" s="1">
-        <v>-122.073000</v>
+        <v>-122.07299999999999</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>65927.133146</v>
+        <v>65927.133145999993</v>
       </c>
       <c r="Q25" s="1">
-        <v>18.313093</v>
+        <v>18.313092999999999</v>
       </c>
       <c r="R25" s="1">
-        <v>948.002000</v>
+        <v>948.00199999999995</v>
       </c>
       <c r="S25" s="1">
-        <v>-105.363000</v>
+        <v>-105.363</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>65937.903804</v>
+        <v>65937.903804000001</v>
       </c>
       <c r="V25" s="1">
         <v>18.316084</v>
       </c>
       <c r="W25" s="1">
-        <v>954.825000</v>
+        <v>954.82500000000005</v>
       </c>
       <c r="X25" s="1">
-        <v>-89.870200</v>
+        <v>-89.870199999999997</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>65948.443264</v>
+        <v>65948.443264000001</v>
       </c>
       <c r="AA25" s="1">
-        <v>18.319012</v>
+        <v>18.319012000000001</v>
       </c>
       <c r="AB25" s="1">
-        <v>962.210000</v>
+        <v>962.21</v>
       </c>
       <c r="AC25" s="1">
-        <v>-77.767700</v>
+        <v>-77.767700000000005</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>65958.930673</v>
+        <v>65958.930672999995</v>
       </c>
       <c r="AF25" s="1">
         <v>18.321925</v>
       </c>
       <c r="AG25" s="1">
-        <v>967.067000</v>
+        <v>967.06700000000001</v>
       </c>
       <c r="AH25" s="1">
-        <v>-75.403200</v>
+        <v>-75.403199999999998</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>65969.165154</v>
+        <v>65969.165154000002</v>
       </c>
       <c r="AK25" s="1">
-        <v>18.324768</v>
+        <v>18.324767999999999</v>
       </c>
       <c r="AL25" s="1">
-        <v>974.088000</v>
+        <v>974.08799999999997</v>
       </c>
       <c r="AM25" s="1">
-        <v>-79.783200</v>
+        <v>-79.783199999999994</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>65979.844487</v>
+        <v>65979.844486999995</v>
       </c>
       <c r="AP25" s="1">
-        <v>18.327735</v>
+        <v>18.327735000000001</v>
       </c>
       <c r="AQ25" s="1">
-        <v>982.111000</v>
+        <v>982.11099999999999</v>
       </c>
       <c r="AR25" s="1">
-        <v>-91.195000</v>
+        <v>-91.194999999999993</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>65990.591302</v>
+        <v>65990.591302000001</v>
       </c>
       <c r="AU25" s="1">
-        <v>18.330720</v>
+        <v>18.330719999999999</v>
       </c>
       <c r="AV25" s="1">
-        <v>991.926000</v>
+        <v>991.92600000000004</v>
       </c>
       <c r="AW25" s="1">
-        <v>-108.745000</v>
+        <v>-108.745</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>66001.459144</v>
+        <v>66001.459143999993</v>
       </c>
       <c r="AZ25" s="1">
-        <v>18.333739</v>
+        <v>18.333739000000001</v>
       </c>
       <c r="BA25" s="1">
-        <v>1000.160000</v>
+        <v>1000.16</v>
       </c>
       <c r="BB25" s="1">
-        <v>-124.320000</v>
+        <v>-124.32</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>66012.268496</v>
+        <v>66012.268496000004</v>
       </c>
       <c r="BE25" s="1">
         <v>18.336741</v>
       </c>
       <c r="BF25" s="1">
-        <v>1038.990000</v>
+        <v>1038.99</v>
       </c>
       <c r="BG25" s="1">
-        <v>-196.075000</v>
+        <v>-196.07499999999999</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>66023.314363</v>
+        <v>66023.314362999998</v>
       </c>
       <c r="BJ25" s="1">
-        <v>18.339810</v>
+        <v>18.33981</v>
       </c>
       <c r="BK25" s="1">
-        <v>1106.500000</v>
+        <v>1106.5</v>
       </c>
       <c r="BL25" s="1">
-        <v>-311.871000</v>
+        <v>-311.87099999999998</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>66033.582046</v>
+        <v>66033.582045999996</v>
       </c>
       <c r="BO25" s="1">
-        <v>18.342662</v>
+        <v>18.342662000000001</v>
       </c>
       <c r="BP25" s="1">
-        <v>1216.120000</v>
+        <v>1216.1199999999999</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-492.633000</v>
+        <v>-492.63299999999998</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>66044.714788</v>
+        <v>66044.714787999997</v>
       </c>
       <c r="BT25" s="1">
-        <v>18.345754</v>
+        <v>18.345753999999999</v>
       </c>
       <c r="BU25" s="1">
-        <v>1338.290000</v>
+        <v>1338.29</v>
       </c>
       <c r="BV25" s="1">
-        <v>-689.324000</v>
+        <v>-689.32399999999996</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>66056.077608</v>
+        <v>66056.077608000007</v>
       </c>
       <c r="BY25" s="1">
-        <v>18.348910</v>
+        <v>18.34891</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1474.590000</v>
+        <v>1474.59</v>
       </c>
       <c r="CA25" s="1">
-        <v>-897.886000</v>
+        <v>-897.88599999999997</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>66069.544974</v>
+        <v>66069.544974000004</v>
       </c>
       <c r="CD25" s="1">
-        <v>18.352651</v>
+        <v>18.352651000000002</v>
       </c>
       <c r="CE25" s="1">
-        <v>1827.940000</v>
+        <v>1827.94</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1390.570000</v>
+        <v>-1390.57</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>65895.673892</v>
+        <v>65895.673892000006</v>
       </c>
       <c r="B26" s="1">
         <v>18.304354</v>
       </c>
       <c r="C26" s="1">
-        <v>898.134000</v>
+        <v>898.13400000000001</v>
       </c>
       <c r="D26" s="1">
-        <v>-202.650000</v>
+        <v>-202.65</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>65906.480726</v>
+        <v>65906.480725999994</v>
       </c>
       <c r="G26" s="1">
-        <v>18.307356</v>
+        <v>18.307355999999999</v>
       </c>
       <c r="H26" s="1">
-        <v>916.026000</v>
+        <v>916.02599999999995</v>
       </c>
       <c r="I26" s="1">
-        <v>-171.793000</v>
+        <v>-171.79300000000001</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>65917.241929</v>
+        <v>65917.241928999996</v>
       </c>
       <c r="L26" s="1">
-        <v>18.310345</v>
+        <v>18.310345000000002</v>
       </c>
       <c r="M26" s="1">
-        <v>940.932000</v>
+        <v>940.93200000000002</v>
       </c>
       <c r="N26" s="1">
-        <v>-122.052000</v>
+        <v>-122.05200000000001</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>65927.795802</v>
+        <v>65927.795801999993</v>
       </c>
       <c r="Q26" s="1">
-        <v>18.313277</v>
+        <v>18.313276999999999</v>
       </c>
       <c r="R26" s="1">
-        <v>948.050000</v>
+        <v>948.05</v>
       </c>
       <c r="S26" s="1">
-        <v>-105.352000</v>
+        <v>-105.352</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>65938.273325</v>
+        <v>65938.273325000002</v>
       </c>
       <c r="V26" s="1">
-        <v>18.316187</v>
+        <v>18.316186999999999</v>
       </c>
       <c r="W26" s="1">
-        <v>954.821000</v>
+        <v>954.82100000000003</v>
       </c>
       <c r="X26" s="1">
-        <v>-90.013400</v>
+        <v>-90.013400000000004</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>65948.841549</v>
+        <v>65948.841549000004</v>
       </c>
       <c r="AA26" s="1">
-        <v>18.319123</v>
+        <v>18.319123000000001</v>
       </c>
       <c r="AB26" s="1">
-        <v>962.149000</v>
+        <v>962.149</v>
       </c>
       <c r="AC26" s="1">
-        <v>-77.829500</v>
+        <v>-77.829499999999996</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>65959.273409</v>
+        <v>65959.273409000001</v>
       </c>
       <c r="AF26" s="1">
-        <v>18.322020</v>
+        <v>18.322019999999998</v>
       </c>
       <c r="AG26" s="1">
-        <v>966.845000</v>
+        <v>966.84500000000003</v>
       </c>
       <c r="AH26" s="1">
-        <v>-75.322200</v>
+        <v>-75.322199999999995</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>65969.512845</v>
+        <v>65969.512845000005</v>
       </c>
       <c r="AK26" s="1">
-        <v>18.324865</v>
+        <v>18.324864999999999</v>
       </c>
       <c r="AL26" s="1">
-        <v>974.089000</v>
+        <v>974.08900000000006</v>
       </c>
       <c r="AM26" s="1">
-        <v>-79.784100</v>
+        <v>-79.784099999999995</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
         <v>65980.203125</v>
       </c>
       <c r="AP26" s="1">
-        <v>18.327834</v>
+        <v>18.327833999999999</v>
       </c>
       <c r="AQ26" s="1">
-        <v>982.121000</v>
+        <v>982.12099999999998</v>
       </c>
       <c r="AR26" s="1">
-        <v>-91.177000</v>
+        <v>-91.177000000000007</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>65991.008440</v>
+        <v>65991.008440000005</v>
       </c>
       <c r="AU26" s="1">
-        <v>18.330836</v>
+        <v>18.330836000000001</v>
       </c>
       <c r="AV26" s="1">
-        <v>991.896000</v>
+        <v>991.89599999999996</v>
       </c>
       <c r="AW26" s="1">
-        <v>-108.729000</v>
+        <v>-108.729</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>66001.889673</v>
+        <v>66001.889672999998</v>
       </c>
       <c r="AZ26" s="1">
-        <v>18.333858</v>
+        <v>18.333857999999999</v>
       </c>
       <c r="BA26" s="1">
-        <v>1000.160000</v>
+        <v>1000.16</v>
       </c>
       <c r="BB26" s="1">
-        <v>-124.306000</v>
+        <v>-124.306</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>66012.573002</v>
+        <v>66012.573002000005</v>
       </c>
       <c r="BE26" s="1">
-        <v>18.336826</v>
+        <v>18.336825999999999</v>
       </c>
       <c r="BF26" s="1">
-        <v>1039.000000</v>
+        <v>1039</v>
       </c>
       <c r="BG26" s="1">
-        <v>-196.059000</v>
+        <v>-196.059</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>66023.689340</v>
+        <v>66023.689339999997</v>
       </c>
       <c r="BJ26" s="1">
         <v>18.339914</v>
       </c>
       <c r="BK26" s="1">
-        <v>1106.490000</v>
+        <v>1106.49</v>
       </c>
       <c r="BL26" s="1">
-        <v>-311.877000</v>
+        <v>-311.87700000000001</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>66034.000669</v>
+        <v>66034.000669000001</v>
       </c>
       <c r="BO26" s="1">
-        <v>18.342778</v>
+        <v>18.342777999999999</v>
       </c>
       <c r="BP26" s="1">
-        <v>1216.140000</v>
+        <v>1216.1400000000001</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-492.674000</v>
+        <v>-492.67399999999998</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>66045.145283</v>
+        <v>66045.145283000005</v>
       </c>
       <c r="BT26" s="1">
-        <v>18.345874</v>
+        <v>18.345873999999998</v>
       </c>
       <c r="BU26" s="1">
-        <v>1338.350000</v>
+        <v>1338.35</v>
       </c>
       <c r="BV26" s="1">
-        <v>-689.328000</v>
+        <v>-689.32799999999997</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>66056.512592</v>
+        <v>66056.512591999999</v>
       </c>
       <c r="BY26" s="1">
         <v>18.349031</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1474.620000</v>
+        <v>1474.62</v>
       </c>
       <c r="CA26" s="1">
-        <v>-897.815000</v>
+        <v>-897.81500000000005</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>66069.724526</v>
+        <v>66069.724526000005</v>
       </c>
       <c r="CD26" s="1">
         <v>18.352701</v>
       </c>
       <c r="CE26" s="1">
-        <v>1826.650000</v>
+        <v>1826.65</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1389.920000</v>
+        <v>-1389.92</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>